--- a/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>0.00263017262893106</v>
+      </c>
+      <c r="C2">
+        <v>1.187398461734994</v>
+      </c>
+      <c r="D2">
+        <v>1.19639723956926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>1.060581693716627</v>
+      </c>
+      <c r="C3">
+        <v>1.053392577043015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>1.467050141140773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>1.518977557236882</v>
+      </c>
+      <c r="C5">
+        <v>0.9973788780068228</v>
+      </c>
+      <c r="D5">
+        <v>0.2981568328517111</v>
+      </c>
+      <c r="E5">
+        <v>1.765100825111241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0.4433753986129711</v>
-      </c>
-      <c r="C2">
-        <v>0.7965083976268805</v>
-      </c>
-      <c r="D2">
-        <v>1.044947970961849</v>
-      </c>
-      <c r="E2">
-        <v>1.422964252966536</v>
-      </c>
-      <c r="F2">
-        <v>0.8314350291369551</v>
-      </c>
-      <c r="G2">
-        <v>0.3941597573207473</v>
-      </c>
-      <c r="H2">
-        <v>1.790382948565101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>1.507023102126869</v>
+      </c>
+      <c r="C6">
+        <v>0.3556740803678696</v>
+      </c>
+      <c r="D6">
+        <v>1.553988313786492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.8616051620132039</v>
-      </c>
-      <c r="C3">
-        <v>0.988992636741727</v>
-      </c>
-      <c r="D3">
-        <v>1.33700767336028</v>
-      </c>
-      <c r="E3">
-        <v>0.7746542073767063</v>
-      </c>
-      <c r="F3">
-        <v>0.3314146597495549</v>
-      </c>
-      <c r="G3">
-        <v>1.725195647272925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>0.6086214473817373</v>
+      </c>
+      <c r="C7">
+        <v>1.767265243392965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1.15300337474982</v>
-      </c>
-      <c r="C4">
-        <v>1.343529173460511</v>
-      </c>
-      <c r="D4">
-        <v>0.670682134238047</v>
-      </c>
-      <c r="E4">
-        <v>0.2821703953875026</v>
-      </c>
-      <c r="F4">
-        <v>1.677262429912832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>2.0939797014891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1.619098085685622</v>
-      </c>
-      <c r="C5">
-        <v>0.7071501324471668</v>
-      </c>
-      <c r="D5">
-        <v>0.1563461338379237</v>
-      </c>
-      <c r="E5">
-        <v>1.639130292981865</v>
-      </c>
-      <c r="F5">
-        <v>0.8647139118693803</v>
-      </c>
-      <c r="G5">
-        <v>-0.9696146299322737</v>
-      </c>
-      <c r="H5">
-        <v>0.848760808887394</v>
-      </c>
-      <c r="I5">
-        <v>0.2152880572690481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>1.580861327382066</v>
+      </c>
+      <c r="C9">
+        <v>-0.8998321381966206</v>
+      </c>
+      <c r="D9">
+        <v>0.6693897066896182</v>
+      </c>
+      <c r="E9">
+        <v>0.233622208029203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>1.129967792378324</v>
-      </c>
-      <c r="C6">
-        <v>0.2426147529702373</v>
-      </c>
-      <c r="D6">
-        <v>1.488260220336608</v>
-      </c>
-      <c r="E6">
-        <v>0.8394017727060447</v>
-      </c>
-      <c r="F6">
-        <v>-0.9929405086651387</v>
-      </c>
-      <c r="G6">
-        <v>0.8041504495728817</v>
-      </c>
-      <c r="H6">
-        <v>0.1766400667647295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>-0.398992337123995</v>
+      </c>
+      <c r="C10">
+        <v>0.7458529950913588</v>
+      </c>
+      <c r="D10">
+        <v>0.0463552570016772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.5109600877902551</v>
-      </c>
-      <c r="C7">
-        <v>1.530054803195385</v>
-      </c>
-      <c r="D7">
-        <v>0.7157283088983948</v>
-      </c>
-      <c r="E7">
-        <v>-1.029872810262909</v>
-      </c>
-      <c r="F7">
-        <v>0.7690338015243727</v>
-      </c>
-      <c r="G7">
-        <v>0.1265542128486633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>0.4301995504883664</v>
+      </c>
+      <c r="C11">
+        <v>0.1270904684666598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>1.634272093324371</v>
-      </c>
-      <c r="C8">
-        <v>0.7224337446771736</v>
-      </c>
-      <c r="D8">
-        <v>-1.096687197240738</v>
-      </c>
-      <c r="E8">
-        <v>0.7402877894781612</v>
-      </c>
-      <c r="F8">
-        <v>0.09875212627909852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>0.5278715411791368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>1.17555609601065</v>
-      </c>
-      <c r="C9">
-        <v>-0.9929286147772559</v>
-      </c>
-      <c r="D9">
-        <v>0.6003202832598508</v>
-      </c>
-      <c r="E9">
-        <v>0.08957331474643204</v>
-      </c>
-      <c r="F9">
-        <v>1.171178237640517</v>
-      </c>
-      <c r="G9">
-        <v>0.7692018496295758</v>
-      </c>
-      <c r="H9">
-        <v>0.4828745782086132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>1.757559444516852</v>
+      </c>
+      <c r="C13">
+        <v>0.73192487658016</v>
+      </c>
+      <c r="D13">
+        <v>0.5042161057578055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>-0.6613549024792993</v>
-      </c>
-      <c r="C10">
-        <v>0.6822831721517943</v>
-      </c>
-      <c r="D10">
-        <v>-0.004486375843810564</v>
-      </c>
-      <c r="E10">
-        <v>1.170351564967073</v>
-      </c>
-      <c r="F10">
-        <v>0.7700431345570136</v>
-      </c>
-      <c r="G10">
-        <v>0.4677821873171544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>1.621809565363561</v>
+      </c>
+      <c r="C14">
+        <v>0.4753973274066212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.5060346404392357</v>
-      </c>
-      <c r="C11">
-        <v>-0.0438724386912836</v>
-      </c>
-      <c r="D11">
-        <v>1.230970503819048</v>
-      </c>
-      <c r="E11">
-        <v>0.7781168952951081</v>
-      </c>
-      <c r="F11">
-        <v>0.4746299168808856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>0.2173625423403552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.105823583074162</v>
-      </c>
-      <c r="C12">
-        <v>1.269890273599762</v>
-      </c>
-      <c r="D12">
-        <v>0.7404533258134915</v>
-      </c>
-      <c r="E12">
-        <v>0.478293096375047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>1.328535661728348</v>
-      </c>
-      <c r="C13">
-        <v>0.7674070311687637</v>
-      </c>
-      <c r="D13">
-        <v>0.4872531658418172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>1.14522468339188</v>
-      </c>
-      <c r="C14">
-        <v>0.5769506230150806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.8669438688347221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.783914781448054</v>
+      </c>
+      <c r="C2">
+        <v>-0.9497809995950681</v>
+      </c>
+      <c r="D2">
+        <v>-1.626209351588451</v>
+      </c>
+      <c r="E2">
+        <v>-2.0769269297812</v>
+      </c>
+      <c r="F2">
+        <v>-1.82661259670583</v>
+      </c>
+      <c r="G2">
+        <v>2.207121860174737</v>
+      </c>
+      <c r="H2">
+        <v>-1.00131877809286</v>
+      </c>
+      <c r="I2">
+        <v>-2.550565041912877</v>
+      </c>
+      <c r="J2">
+        <v>-0.7222485572624929</v>
+      </c>
+      <c r="K2">
+        <v>3.143193626003045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1.289224231335803</v>
+      </c>
+      <c r="C3">
+        <v>-1.826725737928433</v>
+      </c>
+      <c r="D3">
+        <v>-1.514429622017477</v>
+      </c>
+      <c r="E3">
+        <v>2.560658676255775</v>
+      </c>
+      <c r="F3">
+        <v>-0.631438853736868</v>
+      </c>
+      <c r="G3">
+        <v>-2.175708260856179</v>
+      </c>
+      <c r="H3">
+        <v>-0.3462380781551411</v>
+      </c>
+      <c r="I3">
+        <v>3.519321191703164</v>
+      </c>
+      <c r="J3">
+        <v>2.90369341178496</v>
+      </c>
+      <c r="K3">
+        <v>-1.328960282079082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.7711722137179922</v>
+      </c>
+      <c r="C4">
+        <v>2.888384179478936</v>
+      </c>
+      <c r="D4">
+        <v>-0.4736048035835501</v>
+      </c>
+      <c r="E4">
+        <v>-2.07262108616263</v>
+      </c>
+      <c r="F4">
+        <v>-0.2573728334903</v>
+      </c>
+      <c r="G4">
+        <v>3.605477646179495</v>
+      </c>
+      <c r="H4">
+        <v>2.989679624692688</v>
+      </c>
+      <c r="I4">
+        <v>-1.242820717545484</v>
+      </c>
+      <c r="J4">
+        <v>1.108768498421942</v>
+      </c>
+      <c r="K4">
+        <v>-1.277125238582217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.02364825468406306</v>
+      </c>
+      <c r="C5">
+        <v>-1.922673572975777</v>
+      </c>
+      <c r="D5">
+        <v>-0.2104652383780561</v>
+      </c>
+      <c r="E5">
+        <v>3.642337285124228</v>
+      </c>
+      <c r="F5">
+        <v>3.03469154051659</v>
+      </c>
+      <c r="G5">
+        <v>-1.191982222072004</v>
+      </c>
+      <c r="H5">
+        <v>1.16175409067901</v>
+      </c>
+      <c r="I5">
+        <v>-1.223715904554725</v>
+      </c>
+      <c r="J5">
+        <v>1.074955186164999</v>
+      </c>
+      <c r="K5">
+        <v>0.08583242489153098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.2782548236444349</v>
+      </c>
+      <c r="C6">
+        <v>3.808749934793262</v>
+      </c>
+      <c r="D6">
+        <v>3.025144279874273</v>
+      </c>
+      <c r="E6">
+        <v>-1.256897984328516</v>
+      </c>
+      <c r="F6">
+        <v>1.087309552567251</v>
+      </c>
+      <c r="G6">
+        <v>-1.297132603587391</v>
+      </c>
+      <c r="H6">
+        <v>1.003079039529613</v>
+      </c>
+      <c r="I6">
+        <v>0.01463447685178809</v>
+      </c>
+      <c r="J6">
+        <v>-0.778306205789413</v>
+      </c>
+      <c r="K6">
+        <v>0.1708174938164919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2.922807381620241</v>
+      </c>
+      <c r="C7">
+        <v>-1.321117914273829</v>
+      </c>
+      <c r="D7">
+        <v>1.051128570466621</v>
+      </c>
+      <c r="E7">
+        <v>-1.323919821535328</v>
+      </c>
+      <c r="F7">
+        <v>0.9783606555847149</v>
+      </c>
+      <c r="G7">
+        <v>-0.009835201081330069</v>
+      </c>
+      <c r="H7">
+        <v>-0.8027976765926421</v>
+      </c>
+      <c r="I7">
+        <v>0.146307211737063</v>
+      </c>
+      <c r="J7">
+        <v>0.3403656612159267</v>
+      </c>
+      <c r="K7">
+        <v>-0.6516495246614831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.1810470968882796</v>
+      </c>
+      <c r="C8">
+        <v>-1.774720825975534</v>
+      </c>
+      <c r="D8">
+        <v>0.739705493779833</v>
+      </c>
+      <c r="E8">
+        <v>-0.2263748855714762</v>
+      </c>
+      <c r="F8">
+        <v>-1.031284891660424</v>
+      </c>
+      <c r="G8">
+        <v>-0.09064106762750479</v>
+      </c>
+      <c r="H8">
+        <v>0.1004355091996217</v>
+      </c>
+      <c r="I8">
+        <v>-0.8921676723859236</v>
+      </c>
+      <c r="J8">
+        <v>0.6861766051014004</v>
+      </c>
+      <c r="K8">
+        <v>1.545863124586437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.2342429798954535</v>
+      </c>
+      <c r="C9">
+        <v>-0.4196785469454166</v>
+      </c>
+      <c r="D9">
+        <v>-1.078027458166256</v>
+      </c>
+      <c r="E9">
+        <v>-0.09067826435638526</v>
+      </c>
+      <c r="F9">
+        <v>0.1111769086726627</v>
+      </c>
+      <c r="G9">
+        <v>-0.8800848392642618</v>
+      </c>
+      <c r="H9">
+        <v>0.6979878320273075</v>
+      </c>
+      <c r="I9">
+        <v>1.557421884386792</v>
+      </c>
+      <c r="J9">
+        <v>-0.06221107235713663</v>
+      </c>
+      <c r="K9">
+        <v>-0.3293816052698112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-1.430008291759744</v>
+      </c>
+      <c r="C10">
+        <v>-0.2047907429691039</v>
+      </c>
+      <c r="D10">
+        <v>0.09535084332592891</v>
+      </c>
+      <c r="E10">
+        <v>-0.8631283480569703</v>
+      </c>
+      <c r="F10">
+        <v>0.7248270515586229</v>
+      </c>
+      <c r="G10">
+        <v>1.58704961049415</v>
+      </c>
+      <c r="H10">
+        <v>-0.03183810438779866</v>
+      </c>
+      <c r="I10">
+        <v>-0.2988194069883283</v>
+      </c>
+      <c r="J10">
+        <v>1.347734716728958</v>
+      </c>
+      <c r="K10">
+        <v>-0.737149155878463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.6301700028714068</v>
+      </c>
+      <c r="C11">
+        <v>-0.6519645145337321</v>
+      </c>
+      <c r="D11">
+        <v>0.8253638204539273</v>
+      </c>
+      <c r="E11">
+        <v>1.657137239857652</v>
+      </c>
+      <c r="F11">
+        <v>0.03127567636733652</v>
+      </c>
+      <c r="G11">
+        <v>-0.2369721167736492</v>
+      </c>
+      <c r="H11">
+        <v>1.409444495282905</v>
+      </c>
+      <c r="I11">
+        <v>-0.675421957463205</v>
+      </c>
+      <c r="J11">
+        <v>-0.282323798236422</v>
+      </c>
+      <c r="K11">
+        <v>-0.03691428303760302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.6747715919426003</v>
+      </c>
+      <c r="C12">
+        <v>1.586430949001599</v>
+      </c>
+      <c r="D12">
+        <v>-0.01452424165808175</v>
+      </c>
+      <c r="E12">
+        <v>-0.2762315960012538</v>
+      </c>
+      <c r="F12">
+        <v>1.371672914652556</v>
+      </c>
+      <c r="G12">
+        <v>-0.7129056368291755</v>
+      </c>
+      <c r="H12">
+        <v>-0.3197644767023742</v>
+      </c>
+      <c r="I12">
+        <v>-0.07435225235819465</v>
+      </c>
+      <c r="J12">
+        <v>-0.6898407415948713</v>
+      </c>
+      <c r="K12">
+        <v>-1.766815436294924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.3988225332427604</v>
+      </c>
+      <c r="C13">
+        <v>-0.39897900828711</v>
+      </c>
+      <c r="D13">
+        <v>1.347565969997959</v>
+      </c>
+      <c r="E13">
+        <v>-0.708240908160032</v>
+      </c>
+      <c r="F13">
+        <v>-0.3081310782882272</v>
+      </c>
+      <c r="G13">
+        <v>-0.06134191079210971</v>
+      </c>
+      <c r="H13">
+        <v>-0.6766401273363438</v>
+      </c>
+      <c r="I13">
+        <v>-1.753614914012364</v>
+      </c>
+      <c r="J13">
+        <v>2.02403801173242</v>
+      </c>
+      <c r="K13">
+        <v>0.3017796998797531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1.48427987125394</v>
+      </c>
+      <c r="C14">
+        <v>-0.663179691213466</v>
+      </c>
+      <c r="D14">
+        <v>-0.3062280825093527</v>
+      </c>
+      <c r="E14">
+        <v>-0.07324022525410889</v>
+      </c>
+      <c r="F14">
+        <v>-0.6919922911017663</v>
+      </c>
+      <c r="G14">
+        <v>-1.769624036514885</v>
+      </c>
+      <c r="H14">
+        <v>2.007961063538966</v>
+      </c>
+      <c r="I14">
+        <v>0.2857164296924796</v>
+      </c>
+      <c r="J14">
+        <v>1.867291917319047</v>
+      </c>
+      <c r="K14">
+        <v>0.3147043583170359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1.010276019692702</v>
+      </c>
+      <c r="C15">
+        <v>-0.338897141731592</v>
+      </c>
+      <c r="D15">
+        <v>-0.805598740627389</v>
+      </c>
+      <c r="E15">
+        <v>-1.843507033136988</v>
+      </c>
+      <c r="F15">
+        <v>1.941879042287467</v>
+      </c>
+      <c r="G15">
+        <v>0.2204889741914318</v>
+      </c>
+      <c r="H15">
+        <v>1.801921176181108</v>
+      </c>
+      <c r="I15">
+        <v>0.24920912160544</v>
+      </c>
+      <c r="J15">
+        <v>-0.09824586552946624</v>
+      </c>
+      <c r="K15">
+        <v>2.248509409608835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.602627402546333</v>
+      </c>
+      <c r="C16">
+        <v>-1.759083198225355</v>
+      </c>
+      <c r="D16">
+        <v>1.997821069544717</v>
+      </c>
+      <c r="E16">
+        <v>0.2713680743095864</v>
+      </c>
+      <c r="F16">
+        <v>1.852389876844391</v>
+      </c>
+      <c r="G16">
+        <v>0.2998264822992244</v>
+      </c>
+      <c r="H16">
+        <v>-0.04753413256191097</v>
+      </c>
+      <c r="I16">
+        <v>2.299254020626494</v>
+      </c>
+      <c r="J16">
+        <v>-0.08946018863853122</v>
+      </c>
+      <c r="K16">
+        <v>1.186029152005927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>2.297292402757446</v>
+      </c>
+      <c r="C17">
+        <v>0.3534092689093824</v>
+      </c>
+      <c r="D17">
+        <v>1.863175768498134</v>
+      </c>
+      <c r="E17">
+        <v>0.2934519916355237</v>
+      </c>
+      <c r="F17">
+        <v>-0.05677029761964625</v>
+      </c>
+      <c r="G17">
+        <v>2.289895768178479</v>
+      </c>
+      <c r="H17">
+        <v>-0.09868035809696607</v>
+      </c>
+      <c r="I17">
+        <v>1.176878802194115</v>
+      </c>
+      <c r="J17">
+        <v>4.043364766735722</v>
+      </c>
+      <c r="K17">
+        <v>21.27967369026001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1.063338934852357</v>
+      </c>
+      <c r="C18">
+        <v>2.12986561425013</v>
+      </c>
+      <c r="D18">
+        <v>0.4100146244299687</v>
+      </c>
+      <c r="E18">
+        <v>0.02112765553181095</v>
+      </c>
+      <c r="F18">
+        <v>2.360241907275426</v>
+      </c>
+      <c r="G18">
+        <v>-0.02918395655024386</v>
+      </c>
+      <c r="H18">
+        <v>1.246493872916622</v>
+      </c>
+      <c r="I18">
+        <v>4.113090733449856</v>
+      </c>
+      <c r="J18">
+        <v>21.3494421894338</v>
+      </c>
+      <c r="K18">
+        <v>-11.41235494070346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.7205900043201401</v>
+      </c>
+      <c r="C19">
+        <v>-0.1170380900485803</v>
+      </c>
+      <c r="D19">
+        <v>-0.2218539528768028</v>
+      </c>
+      <c r="E19">
+        <v>2.169237818993972</v>
+      </c>
+      <c r="F19">
+        <v>-0.2214461646506249</v>
+      </c>
+      <c r="G19">
+        <v>1.049179492191723</v>
+      </c>
+      <c r="H19">
+        <v>3.913643635892025</v>
+      </c>
+      <c r="I19">
+        <v>21.14948944790087</v>
+      </c>
+      <c r="J19">
+        <v>-11.61234568202265</v>
+      </c>
+      <c r="K19">
+        <v>-1.999998245681154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.2179360179612028</v>
+      </c>
+      <c r="C20">
+        <v>-0.1256761673136928</v>
+      </c>
+      <c r="D20">
+        <v>2.206651065544603</v>
+      </c>
+      <c r="E20">
+        <v>-0.1888494258234035</v>
+      </c>
+      <c r="F20">
+        <v>1.084840568140916</v>
+      </c>
+      <c r="G20">
+        <v>3.951079698089062</v>
+      </c>
+      <c r="H20">
+        <v>21.18743663331301</v>
+      </c>
+      <c r="I20">
+        <v>-11.57433028084995</v>
+      </c>
+      <c r="J20">
+        <v>-1.961998032128142</v>
+      </c>
+      <c r="K20">
+        <v>-0.9557157557615074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.9850902130296404</v>
+      </c>
+      <c r="C21">
+        <v>1.921394327688354</v>
+      </c>
+      <c r="D21">
+        <v>-0.3036182876710231</v>
+      </c>
+      <c r="E21">
+        <v>0.9930467893365904</v>
+      </c>
+      <c r="F21">
+        <v>3.853903563802187</v>
+      </c>
+      <c r="G21">
+        <v>21.0857936497719</v>
+      </c>
+      <c r="H21">
+        <v>-11.6774541045591</v>
+      </c>
+      <c r="I21">
+        <v>-2.065368454430287</v>
+      </c>
+      <c r="J21">
+        <v>-1.059060113776991</v>
+      </c>
+      <c r="K21">
+        <v>-0.3394023097951869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2.139859388800414</v>
+      </c>
+      <c r="C22">
+        <v>-0.3488979473710845</v>
+      </c>
+      <c r="D22">
+        <v>0.870320191334498</v>
+      </c>
+      <c r="E22">
+        <v>3.723909292755843</v>
+      </c>
+      <c r="F22">
+        <v>20.96076756178934</v>
+      </c>
+      <c r="G22">
+        <v>-11.79946206552705</v>
+      </c>
+      <c r="H22">
+        <v>-2.186546472550725</v>
+      </c>
+      <c r="I22">
+        <v>-1.180184476842841</v>
+      </c>
+      <c r="J22">
+        <v>-0.4605890746769088</v>
+      </c>
+      <c r="K22">
+        <v>-0.8241036230078853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.1218544543309905</v>
+      </c>
+      <c r="C23">
+        <v>1.067890400101336</v>
+      </c>
+      <c r="D23">
+        <v>3.899459768914954</v>
+      </c>
+      <c r="E23">
+        <v>21.12753366559471</v>
+      </c>
+      <c r="F23">
+        <v>-11.63457133199314</v>
+      </c>
+      <c r="G23">
+        <v>-2.02148146829067</v>
+      </c>
+      <c r="H23">
+        <v>-1.014773945982661</v>
+      </c>
+      <c r="I23">
+        <v>-0.2950177812229637</v>
+      </c>
+      <c r="J23">
+        <v>-0.6584922002374957</v>
+      </c>
+      <c r="K23">
+        <v>0.4236507848105178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.5573844767631356</v>
+      </c>
+      <c r="C24">
+        <v>3.303312346819399</v>
+      </c>
+      <c r="D24">
+        <v>20.99964632358921</v>
+      </c>
+      <c r="E24">
+        <v>-11.70486310362146</v>
+      </c>
+      <c r="F24">
+        <v>-2.156362164773793</v>
+      </c>
+      <c r="G24">
+        <v>-1.199234000522484</v>
+      </c>
+      <c r="H24">
+        <v>-0.4946832511979791</v>
+      </c>
+      <c r="I24">
+        <v>-0.8565566553573264</v>
+      </c>
+      <c r="J24">
+        <v>0.2297134433794913</v>
+      </c>
+      <c r="K24">
+        <v>2.622077131333623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>4.360872725177995</v>
+      </c>
+      <c r="C25">
+        <v>21.2618668487921</v>
+      </c>
+      <c r="D25">
+        <v>-11.73420447652991</v>
+      </c>
+      <c r="E25">
+        <v>-2.187747003296942</v>
+      </c>
+      <c r="F25">
+        <v>-1.171940954314574</v>
+      </c>
+      <c r="G25">
+        <v>-0.4337146357312109</v>
+      </c>
+      <c r="H25">
+        <v>-0.7885534557655294</v>
+      </c>
+      <c r="I25">
+        <v>0.2947829387523133</v>
+      </c>
+      <c r="J25">
+        <v>2.684036070423445</v>
+      </c>
+      <c r="K25">
+        <v>-0.4566493287020833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>20.39352172855009</v>
+      </c>
+      <c r="C26">
+        <v>-11.97819278086478</v>
+      </c>
+      <c r="D26">
+        <v>-2.202775809451779</v>
+      </c>
+      <c r="E26">
+        <v>-1.179060903589385</v>
+      </c>
+      <c r="F26">
+        <v>-0.4805193120893945</v>
+      </c>
+      <c r="G26">
+        <v>-0.8590935839047461</v>
+      </c>
+      <c r="H26">
+        <v>0.218609501285161</v>
+      </c>
+      <c r="I26">
+        <v>2.609287327375511</v>
+      </c>
+      <c r="J26">
+        <v>-0.5295140802321988</v>
+      </c>
+      <c r="K26">
+        <v>0.4602078128757708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-13.75601201795639</v>
+      </c>
+      <c r="C27">
+        <v>-2.667290975996222</v>
+      </c>
+      <c r="D27">
+        <v>-1.170730477655959</v>
+      </c>
+      <c r="E27">
+        <v>-0.4592523500636571</v>
+      </c>
+      <c r="F27">
+        <v>-0.9216336577199715</v>
+      </c>
+      <c r="G27">
+        <v>0.1064460034094384</v>
+      </c>
+      <c r="H27">
+        <v>2.485359408386078</v>
+      </c>
+      <c r="I27">
+        <v>-0.6504996967639052</v>
+      </c>
+      <c r="J27">
+        <v>0.3431429921561105</v>
+      </c>
+      <c r="K27">
+        <v>0.8998071745244511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-4.176275417972372</v>
+      </c>
+      <c r="C28">
+        <v>-0.8513920047003841</v>
+      </c>
+      <c r="D28">
+        <v>-0.8747711236533781</v>
+      </c>
+      <c r="E28">
+        <v>-1.089731692571129</v>
+      </c>
+      <c r="F28">
+        <v>-0.04919743416439432</v>
+      </c>
+      <c r="G28">
+        <v>2.35022992986651</v>
+      </c>
+      <c r="H28">
+        <v>-0.7919999958606055</v>
+      </c>
+      <c r="I28">
+        <v>0.197755174813279</v>
+      </c>
+      <c r="J28">
+        <v>0.7525524480939768</v>
+      </c>
+      <c r="K28">
+        <v>0.9645961596537407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-3.787625285784843</v>
+      </c>
+      <c r="C29">
+        <v>-0.432863167639702</v>
+      </c>
+      <c r="D29">
+        <v>-0.5287345746054488</v>
+      </c>
+      <c r="E29">
+        <v>0.1753247850799385</v>
+      </c>
+      <c r="F29">
+        <v>2.581785180304019</v>
+      </c>
+      <c r="G29">
+        <v>-0.5111546260827475</v>
+      </c>
+      <c r="H29">
+        <v>0.4696429318928635</v>
+      </c>
+      <c r="I29">
+        <v>1.019621467051914</v>
+      </c>
+      <c r="J29">
+        <v>1.23339139923014</v>
+      </c>
+      <c r="K29">
+        <v>0.645746645802625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-0.7578452287282522</v>
+      </c>
+      <c r="C30">
+        <v>-0.5597428085676276</v>
+      </c>
+      <c r="D30">
+        <v>0.5778186539118081</v>
+      </c>
+      <c r="E30">
+        <v>2.898063899290428</v>
+      </c>
+      <c r="F30">
+        <v>-0.2349295767977017</v>
+      </c>
+      <c r="G30">
+        <v>0.7605104076862856</v>
+      </c>
+      <c r="H30">
+        <v>1.313578309248442</v>
+      </c>
+      <c r="I30">
+        <v>1.5252642396264</v>
+      </c>
+      <c r="J30">
+        <v>0.9374714342743756</v>
+      </c>
+      <c r="K30">
+        <v>0.5212989039688354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-0.6507593659556479</v>
+      </c>
+      <c r="C31">
+        <v>0.6215155442722385</v>
+      </c>
+      <c r="D31">
+        <v>3.007213892777403</v>
+      </c>
+      <c r="E31">
+        <v>-0.1605739219240236</v>
+      </c>
+      <c r="F31">
+        <v>0.836484254877506</v>
+      </c>
+      <c r="G31">
+        <v>1.393692174235425</v>
+      </c>
+      <c r="H31">
+        <v>1.603919722534241</v>
+      </c>
+      <c r="I31">
+        <v>1.015976207493818</v>
+      </c>
+      <c r="J31">
+        <v>0.6000616752766759</v>
+      </c>
+      <c r="K31">
+        <v>1.990125400603543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.5234298961321907</v>
+      </c>
+      <c r="C32">
+        <v>2.911418801679441</v>
+      </c>
+      <c r="D32">
+        <v>-0.1373602487805309</v>
+      </c>
+      <c r="E32">
+        <v>0.8285601310829777</v>
+      </c>
+      <c r="F32">
+        <v>1.374801642862874</v>
+      </c>
+      <c r="G32">
+        <v>1.592842216251652</v>
+      </c>
+      <c r="H32">
+        <v>1.004631694689761</v>
+      </c>
+      <c r="I32">
+        <v>0.5875366631973855</v>
+      </c>
+      <c r="J32">
+        <v>1.97794839771825</v>
+      </c>
+      <c r="K32">
+        <v>1.208895830548469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>3.334065332543968</v>
+      </c>
+      <c r="C33">
+        <v>-0.269029617536787</v>
+      </c>
+      <c r="D33">
+        <v>0.6891880034005424</v>
+      </c>
+      <c r="E33">
+        <v>1.326709827229369</v>
+      </c>
+      <c r="F33">
+        <v>1.522169868939906</v>
+      </c>
+      <c r="G33">
+        <v>0.9251516718475776</v>
+      </c>
+      <c r="H33">
+        <v>0.5139916675090275</v>
+      </c>
+      <c r="I33">
+        <v>1.904273033799033</v>
+      </c>
+      <c r="J33">
+        <v>1.134298659749043</v>
+      </c>
+      <c r="K33">
+        <v>-0.6862407357563015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>0.00263017262893106</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>1.187398461734994</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>1.19639723956926</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>1.528876283700678</v>
+      </c>
+      <c r="F34">
+        <v>0.992931237633922</v>
+      </c>
+      <c r="G34">
+        <v>0.5434978495307157</v>
+      </c>
+      <c r="H34">
+        <v>1.934693440551384</v>
+      </c>
+      <c r="I34">
+        <v>1.170475554061898</v>
+      </c>
+      <c r="J34">
+        <v>-0.6517858780286955</v>
+      </c>
+      <c r="K34">
+        <v>1.161373046709396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>1.060581693716627</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>1.053392577043015</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>1.419465804497016</v>
+      </c>
+      <c r="E35">
+        <v>0.8797463297447747</v>
+      </c>
+      <c r="F35">
+        <v>0.423601941970173</v>
+      </c>
+      <c r="G35">
+        <v>1.817484078057204</v>
+      </c>
+      <c r="H35">
+        <v>1.053919476462151</v>
+      </c>
+      <c r="I35">
+        <v>-0.7690853218463933</v>
+      </c>
+      <c r="J35">
+        <v>1.044161215233098</v>
+      </c>
+      <c r="K35">
+        <v>0.4103559913660881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>1.467050141140773</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>1.424718460545573</v>
+      </c>
+      <c r="D36">
+        <v>0.7524833831325379</v>
+      </c>
+      <c r="E36">
+        <v>0.4078447367034678</v>
+      </c>
+      <c r="F36">
+        <v>1.790874203527355</v>
+      </c>
+      <c r="G36">
+        <v>1.011164658720503</v>
+      </c>
+      <c r="H36">
+        <v>-0.805024679795501</v>
+      </c>
+      <c r="I36">
+        <v>1.008962678263482</v>
+      </c>
+      <c r="J36">
+        <v>0.3737406991727839</v>
+      </c>
+      <c r="K36">
+        <v>1.455668849989681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>1.518977557236882</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>0.9973788780068228</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>0.2981568328517111</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>1.765100825111241</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>1.028239155972184</v>
+      </c>
+      <c r="G37">
+        <v>-0.818161869059933</v>
+      </c>
+      <c r="H37">
+        <v>0.9970480988696711</v>
+      </c>
+      <c r="I37">
+        <v>0.3673881692494333</v>
+      </c>
+      <c r="J37">
+        <v>1.447298367331647</v>
+      </c>
+      <c r="K37">
+        <v>1.065509805047983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>1.507023102126869</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>0.3556740803678696</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>1.553988313786492</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>0.996044773090166</v>
+      </c>
+      <c r="F38">
+        <v>-0.8531463502809785</v>
+      </c>
+      <c r="G38">
+        <v>0.9264201439494726</v>
+      </c>
+      <c r="H38">
+        <v>0.3088145413326406</v>
+      </c>
+      <c r="I38">
+        <v>1.392120701157658</v>
+      </c>
+      <c r="J38">
+        <v>1.006776218558796</v>
+      </c>
+      <c r="K38">
+        <v>0.7152382974077187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.6086214473817373</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>1.767265243392965</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>0.8685089110857406</v>
+      </c>
+      <c r="E39">
+        <v>-0.8652657715866565</v>
+      </c>
+      <c r="F39">
+        <v>0.9463479248289146</v>
+      </c>
+      <c r="G39">
+        <v>0.2954592460428722</v>
+      </c>
+      <c r="H39">
+        <v>1.382822668310913</v>
+      </c>
+      <c r="I39">
+        <v>1.002884774482217</v>
+      </c>
+      <c r="J39">
+        <v>0.7088269804859945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>2.0939797014891</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>0.818309841887791</v>
+      </c>
+      <c r="D40">
+        <v>-0.9824955642729163</v>
+      </c>
+      <c r="E40">
+        <v>0.9246889889841593</v>
+      </c>
+      <c r="F40">
+        <v>0.2571322227981659</v>
+      </c>
+      <c r="G40">
+        <v>1.330805361101197</v>
+      </c>
+      <c r="H40">
+        <v>0.9584533755471589</v>
+      </c>
+      <c r="I40">
+        <v>0.6647285871622255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>1.580861327382066</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>-0.8998321381966206</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.6693897066896182</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>0.233622208029203</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>1.301461903791109</v>
+      </c>
+      <c r="G41">
+        <v>0.8867288963057156</v>
+      </c>
+      <c r="H41">
+        <v>0.6069524828506329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.398992337123995</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.7458529950913588</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>0.0463552570016772</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>1.271121767346816</v>
+      </c>
+      <c r="F42">
+        <v>0.8594205564679304</v>
+      </c>
+      <c r="G42">
+        <v>0.5494396102943983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.4301995504883664</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>0.1270904684666598</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>1.376970469857032</v>
+      </c>
+      <c r="E43">
+        <v>0.8792603718282486</v>
+      </c>
+      <c r="F43">
+        <v>0.5897053346562375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.5278715411791368</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>1.269905303029973</v>
+      </c>
+      <c r="D44">
+        <v>0.7669729753779809</v>
+      </c>
+      <c r="E44">
+        <v>0.5781552054943859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>1.757559444516852</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>0.73192487658016</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>0.5042161057578055</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>1.621809565363561</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>0.4753973274066212</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.2173625423403552</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-0.783914781448054</v>
-      </c>
-      <c r="C2">
-        <v>-0.9497809995950681</v>
-      </c>
-      <c r="D2">
-        <v>-1.626209351588451</v>
-      </c>
-      <c r="E2">
-        <v>-2.0769269297812</v>
-      </c>
-      <c r="F2">
-        <v>-1.82661259670583</v>
-      </c>
-      <c r="G2">
-        <v>2.207121860174737</v>
-      </c>
-      <c r="H2">
-        <v>-1.00131877809286</v>
-      </c>
-      <c r="I2">
-        <v>-2.550565041912877</v>
-      </c>
-      <c r="J2">
-        <v>-0.7222485572624929</v>
-      </c>
-      <c r="K2">
-        <v>3.143193626003045</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-1.289224231335803</v>
-      </c>
-      <c r="C3">
-        <v>-1.826725737928433</v>
-      </c>
-      <c r="D3">
-        <v>-1.514429622017477</v>
-      </c>
-      <c r="E3">
-        <v>2.560658676255775</v>
-      </c>
-      <c r="F3">
-        <v>-0.631438853736868</v>
-      </c>
-      <c r="G3">
-        <v>-2.175708260856179</v>
-      </c>
-      <c r="H3">
-        <v>-0.3462380781551411</v>
-      </c>
-      <c r="I3">
-        <v>3.519321191703164</v>
-      </c>
-      <c r="J3">
-        <v>2.90369341178496</v>
-      </c>
-      <c r="K3">
-        <v>-1.328960282079082</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-0.7711722137179922</v>
-      </c>
-      <c r="C4">
-        <v>2.888384179478936</v>
-      </c>
-      <c r="D4">
-        <v>-0.4736048035835501</v>
-      </c>
-      <c r="E4">
-        <v>-2.07262108616263</v>
-      </c>
-      <c r="F4">
-        <v>-0.2573728334903</v>
-      </c>
-      <c r="G4">
-        <v>3.605477646179495</v>
-      </c>
-      <c r="H4">
-        <v>2.989679624692688</v>
-      </c>
-      <c r="I4">
-        <v>-1.242820717545484</v>
-      </c>
-      <c r="J4">
-        <v>1.108768498421942</v>
-      </c>
-      <c r="K4">
-        <v>-1.277125238582217</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.02364825468406306</v>
-      </c>
-      <c r="C5">
-        <v>-1.922673572975777</v>
-      </c>
-      <c r="D5">
-        <v>-0.2104652383780561</v>
-      </c>
-      <c r="E5">
-        <v>3.642337285124228</v>
-      </c>
-      <c r="F5">
-        <v>3.03469154051659</v>
-      </c>
-      <c r="G5">
-        <v>-1.191982222072004</v>
-      </c>
-      <c r="H5">
-        <v>1.16175409067901</v>
-      </c>
-      <c r="I5">
-        <v>-1.223715904554725</v>
-      </c>
-      <c r="J5">
-        <v>1.074955186164999</v>
-      </c>
-      <c r="K5">
-        <v>0.08583242489153098</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.2782548236444349</v>
-      </c>
-      <c r="C6">
-        <v>3.808749934793262</v>
-      </c>
-      <c r="D6">
-        <v>3.025144279874273</v>
-      </c>
-      <c r="E6">
-        <v>-1.256897984328516</v>
-      </c>
-      <c r="F6">
-        <v>1.087309552567251</v>
-      </c>
-      <c r="G6">
-        <v>-1.297132603587391</v>
-      </c>
-      <c r="H6">
-        <v>1.003079039529613</v>
-      </c>
-      <c r="I6">
-        <v>0.01463447685178809</v>
-      </c>
-      <c r="J6">
-        <v>-0.778306205789413</v>
-      </c>
-      <c r="K6">
-        <v>0.1708174938164919</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.922807381620241</v>
+        <v>-6.368857250183517</v>
       </c>
       <c r="C7">
-        <v>-1.321117914273829</v>
+        <v>-1.436638705109976</v>
       </c>
       <c r="D7">
-        <v>1.051128570466621</v>
+        <v>-1.15069524630399</v>
       </c>
       <c r="E7">
-        <v>-1.323919821535328</v>
+        <v>-1.637140891534393</v>
       </c>
       <c r="F7">
-        <v>0.9783606555847149</v>
+        <v>-2.051596674685428</v>
       </c>
       <c r="G7">
-        <v>-0.009835201081330069</v>
+        <v>-1.810622409974628</v>
       </c>
       <c r="H7">
-        <v>-0.8027976765926421</v>
+        <v>2.212164033381433</v>
       </c>
       <c r="I7">
-        <v>0.146307211737063</v>
+        <v>-1.000983204802937</v>
       </c>
       <c r="J7">
-        <v>0.3403656612159267</v>
+        <v>-2.551166220803925</v>
       </c>
       <c r="K7">
-        <v>-0.6516495246614831</v>
+        <v>-0.7226399948530924</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.1810470968882796</v>
+        <v>-0.813710126051342</v>
       </c>
       <c r="C8">
-        <v>-1.774720825975534</v>
+        <v>-1.386939699681625</v>
       </c>
       <c r="D8">
-        <v>0.739705493779833</v>
+        <v>-1.739413699997076</v>
       </c>
       <c r="E8">
-        <v>-0.2263748855714762</v>
+        <v>-1.45708559389359</v>
       </c>
       <c r="F8">
-        <v>-1.031284891660424</v>
+        <v>2.582043957737425</v>
       </c>
       <c r="G8">
-        <v>-0.09064106762750479</v>
+        <v>-0.6261264237462381</v>
       </c>
       <c r="H8">
-        <v>0.1004355091996217</v>
+        <v>-2.175155741696573</v>
       </c>
       <c r="I8">
-        <v>-0.8921676723859236</v>
+        <v>-0.3465124291529731</v>
       </c>
       <c r="J8">
-        <v>0.6861766051014004</v>
+        <v>3.519114630570317</v>
       </c>
       <c r="K8">
-        <v>1.545863124586437</v>
+        <v>2.903612064171368</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2342429798954535</v>
+        <v>-0.996156291697591</v>
       </c>
       <c r="C9">
-        <v>-0.4196785469454166</v>
+        <v>-1.129360090670429</v>
       </c>
       <c r="D9">
-        <v>-1.078027458166256</v>
+        <v>2.739878007890743</v>
       </c>
       <c r="E9">
-        <v>-0.09067826435638526</v>
+        <v>-0.5230392490526889</v>
       </c>
       <c r="F9">
-        <v>0.1111769086726627</v>
+        <v>-2.086290497031732</v>
       </c>
       <c r="G9">
-        <v>-0.8800848392642618</v>
+        <v>-0.2603559746766422</v>
       </c>
       <c r="H9">
-        <v>0.6979878320273075</v>
+        <v>3.605100843478045</v>
       </c>
       <c r="I9">
-        <v>1.557421884386792</v>
+        <v>2.989751628704966</v>
       </c>
       <c r="J9">
-        <v>-0.06221107235713663</v>
+        <v>-1.242744355071291</v>
       </c>
       <c r="K9">
-        <v>-0.3293816052698112</v>
+        <v>1.108804594880352</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1.430008291759744</v>
+        <v>3.237131066158356</v>
       </c>
       <c r="C10">
-        <v>-0.2047907429691039</v>
+        <v>-0.3730917358658361</v>
       </c>
       <c r="D10">
-        <v>0.09535084332592891</v>
+        <v>-2.039382901919488</v>
       </c>
       <c r="E10">
-        <v>-0.8631283480569703</v>
+        <v>-0.2234963357319091</v>
       </c>
       <c r="F10">
-        <v>0.7248270515586229</v>
+        <v>3.650112759301947</v>
       </c>
       <c r="G10">
-        <v>1.58704961049415</v>
+        <v>3.040590124178446</v>
       </c>
       <c r="H10">
-        <v>-0.03183810438779866</v>
+        <v>-1.189758762814223</v>
       </c>
       <c r="I10">
-        <v>-0.2988194069883283</v>
+        <v>1.162213928907844</v>
       </c>
       <c r="J10">
-        <v>1.347734716728958</v>
+        <v>-1.223748730369209</v>
       </c>
       <c r="K10">
-        <v>-0.737149155878463</v>
+        <v>1.074878680231034</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.6301700028714068</v>
+        <v>-1.550662839896997</v>
       </c>
       <c r="C11">
-        <v>-0.6519645145337321</v>
+        <v>-0.05708368606287517</v>
       </c>
       <c r="D11">
-        <v>0.8253638204539273</v>
+        <v>3.64056549865963</v>
       </c>
       <c r="E11">
-        <v>1.657137239857652</v>
+        <v>2.975674361921934</v>
       </c>
       <c r="F11">
-        <v>0.03127567636733652</v>
+        <v>-1.264203300925982</v>
       </c>
       <c r="G11">
-        <v>-0.2369721167736492</v>
+        <v>1.088797229875178</v>
       </c>
       <c r="H11">
-        <v>1.409444495282905</v>
+        <v>-1.295624877004595</v>
       </c>
       <c r="I11">
-        <v>-0.675421957463205</v>
+        <v>1.003680732191291</v>
       </c>
       <c r="J11">
-        <v>-0.282323798236422</v>
+        <v>0.0147793674887351</v>
       </c>
       <c r="K11">
-        <v>-0.03691428303760302</v>
+        <v>-0.778296176428094</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.6747715919426003</v>
+        <v>3.538228600405598</v>
       </c>
       <c r="C12">
-        <v>1.586430949001599</v>
+        <v>2.911454431976621</v>
       </c>
       <c r="D12">
-        <v>-0.01452424165808175</v>
+        <v>-1.300384283026612</v>
       </c>
       <c r="E12">
-        <v>-0.2762315960012538</v>
+        <v>1.062010011927241</v>
       </c>
       <c r="F12">
-        <v>1.371672914652556</v>
+        <v>-1.320343260949493</v>
       </c>
       <c r="G12">
-        <v>-0.7129056368291755</v>
+        <v>0.9792110542581727</v>
       </c>
       <c r="H12">
-        <v>-0.3197644767023742</v>
+        <v>-0.009712103314494014</v>
       </c>
       <c r="I12">
-        <v>-0.07435225235819465</v>
+        <v>-0.802806458507523</v>
       </c>
       <c r="J12">
-        <v>-0.6898407415948713</v>
+        <v>0.1462931445730078</v>
       </c>
       <c r="K12">
-        <v>-1.766815436294924</v>
+        <v>0.3403595965575588</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.3988225332427604</v>
+        <v>-2.532559950381512</v>
       </c>
       <c r="C13">
-        <v>-0.39897900828711</v>
+        <v>0.6112090074870349</v>
       </c>
       <c r="D13">
-        <v>1.347565969997959</v>
+        <v>-1.558998422754375</v>
       </c>
       <c r="E13">
-        <v>-0.708240908160032</v>
+        <v>0.7626713697680265</v>
       </c>
       <c r="F13">
-        <v>-0.3081310782882272</v>
+        <v>-0.2381993183822756</v>
       </c>
       <c r="G13">
-        <v>-0.06134191079210971</v>
+        <v>-1.039754737872091</v>
       </c>
       <c r="H13">
-        <v>-0.6766401273363438</v>
+        <v>-0.09363700744329717</v>
       </c>
       <c r="I13">
-        <v>-1.753614914012364</v>
+        <v>0.09984144883311818</v>
       </c>
       <c r="J13">
-        <v>2.02403801173242</v>
+        <v>-0.8921424826310529</v>
       </c>
       <c r="K13">
-        <v>0.3017796998797531</v>
+        <v>0.6862538572362853</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.48427987125394</v>
+        <v>-2.064460936638755</v>
       </c>
       <c r="C14">
-        <v>-0.663179691213466</v>
+        <v>0.5693677083940861</v>
       </c>
       <c r="D14">
-        <v>-0.3062280825093527</v>
+        <v>-0.2849418848881079</v>
       </c>
       <c r="E14">
-        <v>-0.07324022525410889</v>
+        <v>-1.039791934600971</v>
       </c>
       <c r="F14">
-        <v>-0.6919922911017663</v>
+        <v>-0.08289560797025619</v>
       </c>
       <c r="G14">
-        <v>-1.769624036514885</v>
+        <v>0.11192428195478</v>
       </c>
       <c r="H14">
-        <v>2.007961063538966</v>
+        <v>-0.8803312557051458</v>
       </c>
       <c r="I14">
-        <v>0.2857164296924796</v>
+        <v>0.6978126170366402</v>
       </c>
       <c r="J14">
-        <v>1.867291917319047</v>
+        <v>1.557357503034233</v>
       </c>
       <c r="K14">
-        <v>0.3147043583170359</v>
+        <v>-0.06222817510784251</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1.010276019692702</v>
+        <v>-0.6369227184815962</v>
       </c>
       <c r="C15">
-        <v>-0.338897141731592</v>
+        <v>-1.15390441321369</v>
       </c>
       <c r="D15">
-        <v>-0.805598740627389</v>
+        <v>-0.09872167331699</v>
       </c>
       <c r="E15">
-        <v>-1.843507033136988</v>
+        <v>0.1288807731620716</v>
       </c>
       <c r="F15">
-        <v>1.941879042287467</v>
+        <v>-0.8534920361738304</v>
       </c>
       <c r="G15">
-        <v>0.2204889741914318</v>
+        <v>0.7274403431439987</v>
       </c>
       <c r="H15">
-        <v>1.801921176181108</v>
+        <v>1.587730471003571</v>
       </c>
       <c r="I15">
-        <v>0.24920912160544</v>
+        <v>-0.03166597682635963</v>
       </c>
       <c r="J15">
-        <v>-0.09824586552946624</v>
+        <v>-0.2987769267809953</v>
       </c>
       <c r="K15">
-        <v>2.248509409608835</v>
+        <v>1.347744990766749</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.602627402546333</v>
+        <v>0.4360974862284879</v>
       </c>
       <c r="C16">
-        <v>-1.759083198225355</v>
+        <v>0.3400446066853098</v>
       </c>
       <c r="D16">
-        <v>1.997821069544717</v>
+        <v>-0.752955267278526</v>
       </c>
       <c r="E16">
-        <v>0.2713680743095864</v>
+        <v>0.7975279725075002</v>
       </c>
       <c r="F16">
-        <v>1.852389876844391</v>
+        <v>1.650844251758706</v>
       </c>
       <c r="G16">
-        <v>0.2998264822992244</v>
+        <v>0.03018131338831953</v>
       </c>
       <c r="H16">
-        <v>-0.04753413256191097</v>
+        <v>-0.2370671482270481</v>
       </c>
       <c r="I16">
-        <v>2.299254020626494</v>
+        <v>1.409472189182007</v>
       </c>
       <c r="J16">
-        <v>-0.08946018863853122</v>
+        <v>-0.6754028698289749</v>
       </c>
       <c r="K16">
-        <v>1.186029152005927</v>
+        <v>-0.2823167565096429</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2.297292402757446</v>
+        <v>-0.9035474957898531</v>
       </c>
       <c r="C17">
-        <v>0.3534092689093824</v>
+        <v>0.7268216816514477</v>
       </c>
       <c r="D17">
-        <v>1.863175768498134</v>
+        <v>1.605044333733288</v>
       </c>
       <c r="E17">
-        <v>0.2934519916355237</v>
+        <v>-0.009078165839285113</v>
       </c>
       <c r="F17">
-        <v>-0.05677029761964625</v>
+        <v>-0.2748387288573969</v>
       </c>
       <c r="G17">
-        <v>2.289895768178479</v>
+        <v>1.371988509816036</v>
       </c>
       <c r="H17">
-        <v>-0.09868035809696607</v>
+        <v>-0.7128435482949271</v>
       </c>
       <c r="I17">
-        <v>1.176878802194115</v>
+        <v>-0.3197547258302346</v>
       </c>
       <c r="J17">
-        <v>4.043364766735722</v>
+        <v>-0.07435146343805643</v>
       </c>
       <c r="K17">
-        <v>21.27967369026001</v>
+        <v>-0.6898409579895783</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.063338934852357</v>
+        <v>1.220746042148609</v>
       </c>
       <c r="C18">
-        <v>2.12986561425013</v>
+        <v>-0.1318255781251413</v>
       </c>
       <c r="D18">
-        <v>0.4100146244299687</v>
+        <v>-0.2989456735119943</v>
       </c>
       <c r="E18">
-        <v>0.02112765553181095</v>
+        <v>1.37665323848518</v>
       </c>
       <c r="F18">
-        <v>2.360241907275426</v>
+        <v>-0.7012101498807801</v>
       </c>
       <c r="G18">
-        <v>-0.02918395655024386</v>
+        <v>-0.3067443842641496</v>
       </c>
       <c r="H18">
-        <v>1.246493872916622</v>
+        <v>-0.06115084917952895</v>
       </c>
       <c r="I18">
-        <v>4.113090733449856</v>
+        <v>-0.6766404357070193</v>
       </c>
       <c r="J18">
-        <v>21.3494421894338</v>
+        <v>-1.753627230325714</v>
       </c>
       <c r="K18">
-        <v>-11.41235494070346</v>
+        <v>2.024032355456279</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.7205900043201401</v>
+        <v>-0.1622317722560132</v>
       </c>
       <c r="C19">
-        <v>-0.1170380900485803</v>
+        <v>1.421714455431746</v>
       </c>
       <c r="D19">
-        <v>-0.2218539528768028</v>
+        <v>-0.6993071541019057</v>
       </c>
       <c r="E19">
-        <v>2.169237818993972</v>
+        <v>-0.3186426987261488</v>
       </c>
       <c r="F19">
-        <v>-0.2214461646506249</v>
+        <v>-0.07650301294495143</v>
       </c>
       <c r="G19">
-        <v>1.049179492191723</v>
+        <v>-0.6926495582095396</v>
       </c>
       <c r="H19">
-        <v>3.913643635892025</v>
+        <v>-1.769704178519168</v>
       </c>
       <c r="I19">
-        <v>21.14948944790087</v>
+        <v>2.007969085269005</v>
       </c>
       <c r="J19">
-        <v>-11.61234568202265</v>
+        <v>0.2857256358156962</v>
       </c>
       <c r="K19">
-        <v>-1.999998245681154</v>
+        <v>1.867295624165436</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2179360179612028</v>
+        <v>-1.403355091285255</v>
       </c>
       <c r="C20">
-        <v>-0.1256761673136928</v>
+        <v>-0.5842996152036319</v>
       </c>
       <c r="D20">
-        <v>2.206651065544603</v>
+        <v>-0.1901094624705741</v>
       </c>
       <c r="E20">
-        <v>-0.1888494258234035</v>
+        <v>-0.7665325548316434</v>
       </c>
       <c r="F20">
-        <v>1.084840568140916</v>
+        <v>-1.835786199770668</v>
       </c>
       <c r="G20">
-        <v>3.951079698089062</v>
+        <v>1.942741629767957</v>
       </c>
       <c r="H20">
-        <v>21.18743663331301</v>
+        <v>0.220354894677757</v>
       </c>
       <c r="I20">
-        <v>-11.57433028084995</v>
+        <v>1.80180038745384</v>
       </c>
       <c r="J20">
-        <v>-1.961998032128142</v>
+        <v>0.2491628686221334</v>
       </c>
       <c r="K20">
-        <v>-0.9557157557615074</v>
+        <v>-0.09825880859437386</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.9850902130296404</v>
+        <v>0.01286187561048191</v>
       </c>
       <c r="C21">
-        <v>1.921394327688354</v>
+        <v>-0.6821087199200093</v>
       </c>
       <c r="D21">
-        <v>-0.3036182876710231</v>
+        <v>-1.779844172513418</v>
       </c>
       <c r="E21">
-        <v>0.9930467893365904</v>
+        <v>1.993620729886112</v>
       </c>
       <c r="F21">
-        <v>3.853903563802187</v>
+        <v>0.2708235953410402</v>
       </c>
       <c r="G21">
-        <v>21.0857936497719</v>
+        <v>1.852417748147625</v>
       </c>
       <c r="H21">
-        <v>-11.6774541045591</v>
+        <v>0.2998746015896887</v>
       </c>
       <c r="I21">
-        <v>-2.065368454430287</v>
+        <v>-0.04751419757671471</v>
       </c>
       <c r="J21">
-        <v>-1.059060113776991</v>
+        <v>2.299259893492286</v>
       </c>
       <c r="K21">
-        <v>-0.3394023097951869</v>
+        <v>-0.08945883417979694</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>2.139859388800414</v>
+        <v>-1.480372839300688</v>
       </c>
       <c r="C22">
-        <v>-0.3488979473710845</v>
+        <v>2.075661924485908</v>
       </c>
       <c r="D22">
-        <v>0.870320191334498</v>
+        <v>0.2816094869947836</v>
       </c>
       <c r="E22">
-        <v>3.723909292755843</v>
+        <v>1.846043257483924</v>
       </c>
       <c r="F22">
-        <v>20.96076756178934</v>
+        <v>0.2906384365319534</v>
       </c>
       <c r="G22">
-        <v>-11.79946206552705</v>
+        <v>-0.05687245002472985</v>
       </c>
       <c r="H22">
-        <v>-2.186546472550725</v>
+        <v>2.290039724033851</v>
       </c>
       <c r="I22">
-        <v>-1.180184476842841</v>
+        <v>-0.09860918399160867</v>
       </c>
       <c r="J22">
-        <v>-0.4605890746769088</v>
+        <v>1.176900888993838</v>
       </c>
       <c r="K22">
-        <v>-0.8241036230078853</v>
+        <v>4.043369835047661</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1218544543309905</v>
+        <v>2.785591590428883</v>
       </c>
       <c r="C23">
-        <v>1.067890400101336</v>
+        <v>0.5482993327467796</v>
       </c>
       <c r="D23">
-        <v>3.899459768914954</v>
+        <v>1.962605890278369</v>
       </c>
       <c r="E23">
-        <v>21.12753366559471</v>
+        <v>0.3685363896834106</v>
       </c>
       <c r="F23">
-        <v>-11.63457133199314</v>
+        <v>0.01347368907221691</v>
       </c>
       <c r="G23">
-        <v>-2.02148146829067</v>
+        <v>2.359536125580573</v>
       </c>
       <c r="H23">
-        <v>-1.014773945982661</v>
+        <v>-0.02899411326910206</v>
       </c>
       <c r="I23">
-        <v>-0.2950177812229637</v>
+        <v>1.246626855707972</v>
       </c>
       <c r="J23">
-        <v>-0.6584922002374957</v>
+        <v>4.113138334221452</v>
       </c>
       <c r="K23">
-        <v>0.4236507848105178</v>
+        <v>21.34945489876353</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.5573844767631356</v>
+        <v>-0.8609762771832106</v>
       </c>
       <c r="C24">
-        <v>3.303312346819399</v>
+        <v>1.43555317579982</v>
       </c>
       <c r="D24">
-        <v>20.99964632358921</v>
+        <v>0.1255547812747969</v>
       </c>
       <c r="E24">
-        <v>-11.70486310362146</v>
+        <v>-0.1775303992092375</v>
       </c>
       <c r="F24">
-        <v>-2.156362164773793</v>
+        <v>2.167273917480192</v>
       </c>
       <c r="G24">
-        <v>-1.199234000522484</v>
+        <v>-0.226308493994001</v>
       </c>
       <c r="H24">
-        <v>-0.4946832511979791</v>
+        <v>1.04717975815014</v>
       </c>
       <c r="I24">
-        <v>-0.8565566553573264</v>
+        <v>3.913185592688521</v>
       </c>
       <c r="J24">
-        <v>0.2297134433794913</v>
+        <v>21.14946415744433</v>
       </c>
       <c r="K24">
-        <v>2.622077131333623</v>
+        <v>-11.61231583702049</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>4.360872725177995</v>
+        <v>1.770527283809603</v>
       </c>
       <c r="C25">
-        <v>21.2618668487921</v>
+        <v>0.2217325668379069</v>
       </c>
       <c r="D25">
-        <v>-11.73420447652991</v>
+        <v>-0.1401171526586062</v>
       </c>
       <c r="E25">
-        <v>-2.187747003296942</v>
+        <v>2.199870656307414</v>
       </c>
       <c r="F25">
-        <v>-1.171940954314574</v>
+        <v>-0.1906474180448077</v>
       </c>
       <c r="G25">
-        <v>-0.4337146357312109</v>
+        <v>1.084615820347178</v>
       </c>
       <c r="H25">
-        <v>-0.7885534557655294</v>
+        <v>3.951132778100655</v>
       </c>
       <c r="I25">
-        <v>0.2947829387523133</v>
+        <v>21.18747955861703</v>
       </c>
       <c r="J25">
-        <v>2.684036070423445</v>
+        <v>-11.57431562346748</v>
       </c>
       <c r="K25">
-        <v>-0.4566493287020833</v>
+        <v>-1.961995145278923</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>20.39352172855009</v>
+        <v>-0.6376814788780407</v>
       </c>
       <c r="C26">
-        <v>-11.97819278086478</v>
+        <v>-0.4253738905148546</v>
       </c>
       <c r="D26">
-        <v>-2.202775809451779</v>
+        <v>2.085101794459794</v>
       </c>
       <c r="E26">
-        <v>-1.179060903589385</v>
+        <v>-0.2824411968491332</v>
       </c>
       <c r="F26">
-        <v>-0.4805193120893945</v>
+        <v>0.9874396860603021</v>
       </c>
       <c r="G26">
-        <v>-0.8590935839047461</v>
+        <v>3.849489794559549</v>
       </c>
       <c r="H26">
-        <v>0.218609501285161</v>
+        <v>21.08435573490787</v>
       </c>
       <c r="I26">
-        <v>2.609287327375511</v>
+        <v>-11.67768604576962</v>
       </c>
       <c r="J26">
-        <v>-0.5295140802321988</v>
+        <v>-2.065339503294407</v>
       </c>
       <c r="K26">
-        <v>0.4602078128757708</v>
+        <v>-1.059026116782331</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-13.75601201795639</v>
+        <v>-0.2069088294027952</v>
       </c>
       <c r="C27">
-        <v>-2.667290975996222</v>
+        <v>2.039822134759732</v>
       </c>
       <c r="D27">
-        <v>-1.170730477655959</v>
+        <v>-0.4051677948512256</v>
       </c>
       <c r="E27">
-        <v>-0.4592523500636571</v>
+        <v>0.8574454150139584</v>
       </c>
       <c r="F27">
-        <v>-0.9216336577199715</v>
+        <v>3.72446370657699</v>
       </c>
       <c r="G27">
-        <v>0.1064460034094384</v>
+        <v>20.96234777393992</v>
       </c>
       <c r="H27">
-        <v>2.485359408386078</v>
+        <v>-11.79886406389006</v>
       </c>
       <c r="I27">
-        <v>-0.6504996967639052</v>
+        <v>-2.186463866360257</v>
       </c>
       <c r="J27">
-        <v>0.3431429921561105</v>
+        <v>-1.180212881664053</v>
       </c>
       <c r="K27">
-        <v>0.8998071745244511</v>
+        <v>-0.4606095307519094</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-4.176275417972372</v>
+        <v>2.266865627799826</v>
       </c>
       <c r="C28">
-        <v>-0.8513920047003841</v>
+        <v>-0.2075975860843876</v>
       </c>
       <c r="D28">
-        <v>-0.8747711236533781</v>
+        <v>1.03299589117307</v>
       </c>
       <c r="E28">
-        <v>-1.089731692571129</v>
+        <v>3.89122981038236</v>
       </c>
       <c r="F28">
-        <v>-0.04919743416439432</v>
+        <v>21.12723850747384</v>
       </c>
       <c r="G28">
-        <v>2.35022992986651</v>
+        <v>-11.63379905963001</v>
       </c>
       <c r="H28">
-        <v>-0.7919999958606055</v>
+        <v>-2.021053335500078</v>
       </c>
       <c r="I28">
-        <v>0.197755174813279</v>
+        <v>-1.014641588210108</v>
       </c>
       <c r="J28">
-        <v>0.7525524480939768</v>
+        <v>-0.2949981079815197</v>
       </c>
       <c r="K28">
-        <v>0.9645961596537407</v>
+        <v>-0.6584969853317673</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-3.787625285784843</v>
+        <v>-1.832872462948859</v>
       </c>
       <c r="C29">
-        <v>-0.432863167639702</v>
+        <v>0.4368484690775145</v>
       </c>
       <c r="D29">
-        <v>-0.5287345746054488</v>
+        <v>3.763342468376856</v>
       </c>
       <c r="E29">
-        <v>0.1753247850799385</v>
+        <v>21.05694673584551</v>
       </c>
       <c r="F29">
-        <v>2.581785180304019</v>
+        <v>-11.76867975611313</v>
       </c>
       <c r="G29">
-        <v>-0.5111546260827475</v>
+        <v>-2.2055133900399</v>
       </c>
       <c r="H29">
-        <v>0.4696429318928635</v>
+        <v>-1.214307058185123</v>
       </c>
       <c r="I29">
-        <v>1.019621467051914</v>
+        <v>-0.4930625631013504</v>
       </c>
       <c r="J29">
-        <v>1.23339139923014</v>
+        <v>-0.8524343267627937</v>
       </c>
       <c r="K29">
-        <v>0.645746645802625</v>
+        <v>0.2317651965407751</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.7578452287282522</v>
+        <v>1.49440884743611</v>
       </c>
       <c r="C30">
-        <v>-0.5597428085676276</v>
+        <v>4.025562993579745</v>
       </c>
       <c r="D30">
-        <v>0.5778186539118081</v>
+        <v>21.02760536293707</v>
       </c>
       <c r="E30">
-        <v>2.898063899290428</v>
+        <v>-11.80006459463628</v>
       </c>
       <c r="F30">
-        <v>-0.2349295767977017</v>
+        <v>-2.17822034383199</v>
       </c>
       <c r="G30">
-        <v>0.7605104076862856</v>
+        <v>-1.153338442718355</v>
       </c>
       <c r="H30">
-        <v>1.313578309248442</v>
+        <v>-0.4250593635095534</v>
       </c>
       <c r="I30">
-        <v>1.5252642396264</v>
+        <v>-0.7873648313899717</v>
       </c>
       <c r="J30">
-        <v>0.9374714342743756</v>
+        <v>0.293724135630597</v>
       </c>
       <c r="K30">
-        <v>0.5212989039688354</v>
+        <v>2.683196721590038</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.6507593659556479</v>
+        <v>3.157217873337744</v>
       </c>
       <c r="C31">
-        <v>0.6215155442722385</v>
+        <v>20.7836170586022</v>
       </c>
       <c r="D31">
-        <v>3.007213892777403</v>
+        <v>-11.81509340079112</v>
       </c>
       <c r="E31">
-        <v>-0.1605739219240236</v>
+        <v>-2.185340293106801</v>
       </c>
       <c r="F31">
-        <v>0.836484254877506</v>
+        <v>-1.200143119076538</v>
       </c>
       <c r="G31">
-        <v>1.393692174235425</v>
+        <v>-0.4955994916487702</v>
       </c>
       <c r="H31">
-        <v>1.603919722534241</v>
+        <v>-0.863538268857124</v>
       </c>
       <c r="I31">
-        <v>1.015976207493818</v>
+        <v>0.2189753925826632</v>
       </c>
       <c r="J31">
-        <v>0.6000616752766759</v>
+        <v>2.610331970059922</v>
       </c>
       <c r="K31">
-        <v>1.990125400603543</v>
+        <v>-0.5289993024319076</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.5234298961321907</v>
+        <v>19.00579782151058</v>
       </c>
       <c r="C32">
-        <v>2.911418801679441</v>
+        <v>-12.27960856733556</v>
       </c>
       <c r="D32">
-        <v>-0.1373602487805309</v>
+        <v>-2.177009867173375</v>
       </c>
       <c r="E32">
-        <v>0.8285601310829777</v>
+        <v>-1.178876157050801</v>
       </c>
       <c r="F32">
-        <v>1.374801642862874</v>
+        <v>-0.5581395654639956</v>
       </c>
       <c r="G32">
-        <v>1.592842216251652</v>
+        <v>-0.9757017667328467</v>
       </c>
       <c r="H32">
-        <v>1.004631694689761</v>
+        <v>0.09504747359322968</v>
       </c>
       <c r="I32">
-        <v>0.5875366631973855</v>
+        <v>2.489346353528216</v>
       </c>
       <c r="J32">
-        <v>1.97794839771825</v>
+        <v>-0.646064123151568</v>
       </c>
       <c r="K32">
-        <v>1.208895830548469</v>
+        <v>0.3448716098904578</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>3.334065332543968</v>
+        <v>-13.78859300931171</v>
       </c>
       <c r="C33">
-        <v>-0.269029617536787</v>
+        <v>-1.8576713942178</v>
       </c>
       <c r="D33">
-        <v>0.6891880034005424</v>
+        <v>-1.594394930640522</v>
       </c>
       <c r="E33">
-        <v>1.326709827229369</v>
+        <v>-0.7262376003151533</v>
       </c>
       <c r="F33">
-        <v>1.522169868939906</v>
+        <v>-1.131345204306679</v>
       </c>
       <c r="G33">
-        <v>0.9251516718475776</v>
+        <v>-0.0400820049263379</v>
       </c>
       <c r="H33">
-        <v>0.5139916675090275</v>
+        <v>2.347846054431515</v>
       </c>
       <c r="I33">
-        <v>1.904273033799033</v>
+        <v>-0.7914519404943994</v>
       </c>
       <c r="J33">
-        <v>1.134298659749043</v>
+        <v>0.1976168834599835</v>
       </c>
       <c r="K33">
-        <v>-0.6862407357563015</v>
+        <v>0.752585062798619</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.00263017262893106</v>
+        <v>-4.793904675302259</v>
       </c>
       <c r="C34">
-        <v>1.187398461734994</v>
+        <v>-1.152486974626846</v>
       </c>
       <c r="D34">
-        <v>1.19639723956926</v>
+        <v>-0.1652404823494729</v>
       </c>
       <c r="E34">
-        <v>1.528876283700678</v>
+        <v>-0.9068229850623465</v>
       </c>
       <c r="F34">
-        <v>0.992931237633922</v>
+        <v>0.1914732455111706</v>
       </c>
       <c r="G34">
-        <v>0.5434978495307157</v>
+        <v>2.628691424209373</v>
       </c>
       <c r="H34">
-        <v>1.934693440551384</v>
+        <v>-0.5195641834148149</v>
       </c>
       <c r="I34">
-        <v>1.170475554061898</v>
+        <v>0.4646859024179207</v>
       </c>
       <c r="J34">
-        <v>-0.6517858780286955</v>
+        <v>1.021380302375019</v>
       </c>
       <c r="K34">
-        <v>1.161373046709396</v>
+        <v>1.233798142738927</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.060581693716627</v>
+        <v>-1.477469035715396</v>
       </c>
       <c r="C35">
-        <v>1.053392577043015</v>
+        <v>-0.1962487163116516</v>
       </c>
       <c r="D35">
-        <v>1.419465804497016</v>
+        <v>-0.5043291162304769</v>
       </c>
       <c r="E35">
-        <v>0.8797463297447747</v>
+        <v>0.5077519644975793</v>
       </c>
       <c r="F35">
-        <v>0.423601941970173</v>
+        <v>2.904916473494419</v>
       </c>
       <c r="G35">
-        <v>1.817484078057204</v>
+        <v>-0.2286967076213928</v>
       </c>
       <c r="H35">
-        <v>1.053919476462151</v>
+        <v>0.758642744614449</v>
       </c>
       <c r="I35">
-        <v>-0.7690853218463933</v>
+        <v>1.313253142771279</v>
       </c>
       <c r="J35">
-        <v>1.044161215233098</v>
-      </c>
-      <c r="K35">
-        <v>0.4103559913660881</v>
+        <v>1.525522931210678</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>1.467050141140773</v>
+        <v>-0.2872652736996719</v>
       </c>
       <c r="C36">
-        <v>1.424718460545573</v>
+        <v>-0.4606322258700465</v>
       </c>
       <c r="D36">
-        <v>0.7524833831325379</v>
+        <v>0.6169019579845554</v>
       </c>
       <c r="E36">
-        <v>0.4078447367034678</v>
+        <v>2.979272128368097</v>
       </c>
       <c r="F36">
-        <v>1.790874203527355</v>
+        <v>-0.1527228604301725</v>
       </c>
       <c r="G36">
-        <v>1.011164658720503</v>
+        <v>0.8387566096014319</v>
       </c>
       <c r="H36">
-        <v>-0.805024679795501</v>
+        <v>1.391908625679119</v>
       </c>
       <c r="I36">
-        <v>1.008962678263482</v>
-      </c>
-      <c r="J36">
-        <v>0.3737406991727839</v>
-      </c>
-      <c r="K36">
-        <v>1.455668849989681</v>
+        <v>1.60402770443012</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.518977557236882</v>
+        <v>-0.5587178740100943</v>
       </c>
       <c r="C37">
-        <v>0.9973788780068228</v>
+        <v>0.5211068668865928</v>
       </c>
       <c r="D37">
-        <v>0.2981568328517111</v>
+        <v>3.00248580151159</v>
       </c>
       <c r="E37">
-        <v>1.765100825111241</v>
+        <v>-0.1606469842247008</v>
       </c>
       <c r="F37">
-        <v>1.028239155972184</v>
+        <v>0.8198660782288805</v>
       </c>
       <c r="G37">
-        <v>-0.818161869059933</v>
+        <v>1.38083111939653</v>
       </c>
       <c r="H37">
-        <v>0.9970480988696711</v>
-      </c>
-      <c r="I37">
-        <v>0.3673881692494333</v>
-      </c>
-      <c r="J37">
-        <v>1.447298367331647</v>
-      </c>
-      <c r="K37">
-        <v>1.065509805047983</v>
+        <v>1.592683191626063</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.507023102126869</v>
+        <v>0.9437533977511201</v>
       </c>
       <c r="C38">
-        <v>0.3556740803678696</v>
+        <v>2.870816432755334</v>
       </c>
       <c r="D38">
-        <v>1.553988313786492</v>
+        <v>-0.300019111907136</v>
       </c>
       <c r="E38">
-        <v>0.996044773090166</v>
+        <v>0.7717742625953756</v>
       </c>
       <c r="F38">
-        <v>-0.8531463502809785</v>
+        <v>1.310158772084785</v>
       </c>
       <c r="G38">
-        <v>0.9264201439494726</v>
-      </c>
-      <c r="H38">
-        <v>0.3088145413326406</v>
-      </c>
-      <c r="I38">
-        <v>1.392120701157658</v>
-      </c>
-      <c r="J38">
-        <v>1.006776218558796</v>
-      </c>
-      <c r="K38">
-        <v>0.7152382974077187</v>
+        <v>1.51320316878388</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.6086214473817373</v>
+        <v>3.142476222921052</v>
       </c>
       <c r="C39">
-        <v>1.767265243392965</v>
+        <v>0.198191346427316</v>
       </c>
       <c r="D39">
-        <v>0.8685089110857406</v>
+        <v>0.6414616749352668</v>
       </c>
       <c r="E39">
-        <v>-0.8652657715866565</v>
+        <v>1.316865186845557</v>
       </c>
       <c r="F39">
-        <v>0.9463479248289146</v>
-      </c>
-      <c r="G39">
-        <v>0.2954592460428722</v>
-      </c>
-      <c r="H39">
-        <v>1.382822668310913</v>
-      </c>
-      <c r="I39">
-        <v>1.002884774482217</v>
-      </c>
-      <c r="J39">
-        <v>0.7088269804859945</v>
+        <v>1.580982734570224</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>2.0939797014891</v>
+        <v>0.07137457840894901</v>
       </c>
       <c r="C40">
-        <v>0.818309841887791</v>
+        <v>0.4984570124090218</v>
       </c>
       <c r="D40">
-        <v>-0.9824955642729163</v>
+        <v>1.207454707641895</v>
       </c>
       <c r="E40">
-        <v>0.9246889889841593</v>
-      </c>
-      <c r="F40">
-        <v>0.2571322227981659</v>
-      </c>
-      <c r="G40">
-        <v>1.330805361101197</v>
-      </c>
-      <c r="H40">
-        <v>0.9584533755471589</v>
-      </c>
-      <c r="I40">
-        <v>0.6647285871622255</v>
+        <v>1.467797826681077</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>1.580861327382066</v>
+        <v>0.9121145765067795</v>
       </c>
       <c r="C41">
-        <v>-0.8998321381966206</v>
+        <v>1.212707363690452</v>
       </c>
       <c r="D41">
-        <v>0.6693897066896182</v>
-      </c>
-      <c r="E41">
-        <v>0.233622208029203</v>
-      </c>
-      <c r="F41">
-        <v>1.301461903791109</v>
-      </c>
-      <c r="G41">
-        <v>0.8867288963057156</v>
-      </c>
-      <c r="H41">
-        <v>0.6069524828506329</v>
+        <v>1.34053488006884</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.398992337123995</v>
+        <v>1.30696646038176</v>
       </c>
       <c r="C42">
-        <v>0.7458529950913588</v>
-      </c>
-      <c r="D42">
-        <v>0.0463552570016772</v>
-      </c>
-      <c r="E42">
-        <v>1.271121767346816</v>
-      </c>
-      <c r="F42">
-        <v>0.8594205564679304</v>
-      </c>
-      <c r="G42">
-        <v>0.5494396102943983</v>
+        <v>1.585430374943125</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.4301995504883664</v>
-      </c>
-      <c r="C43">
-        <v>0.1270904684666598</v>
-      </c>
-      <c r="D43">
-        <v>1.376970469857032</v>
-      </c>
-      <c r="E43">
-        <v>0.8792603718282486</v>
-      </c>
-      <c r="F43">
-        <v>0.5897053346562375</v>
+        <v>2.095074599063171</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.5278715411791368</v>
-      </c>
-      <c r="C44">
-        <v>1.269905303029973</v>
-      </c>
-      <c r="D44">
-        <v>0.7669729753779809</v>
-      </c>
-      <c r="E44">
-        <v>0.5781552054943859</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>1.757559444516852</v>
-      </c>
-      <c r="C45">
-        <v>0.73192487658016</v>
-      </c>
-      <c r="D45">
-        <v>0.5042161057578055</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>1.621809565363561</v>
-      </c>
-      <c r="C46">
-        <v>0.4753973274066212</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.2173625423403552</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-6.368857250183517</v>
+      </c>
+      <c r="C2">
+        <v>-1.436638705109976</v>
+      </c>
+      <c r="D2">
+        <v>-1.15069524630399</v>
+      </c>
+      <c r="E2">
+        <v>-1.637140891534393</v>
+      </c>
+      <c r="F2">
+        <v>-2.051596674685428</v>
+      </c>
+      <c r="G2">
+        <v>-1.810622409974628</v>
+      </c>
+      <c r="H2">
+        <v>2.212164033381433</v>
+      </c>
+      <c r="I2">
+        <v>-1.000983204802937</v>
+      </c>
+      <c r="J2">
+        <v>-2.551166220803925</v>
+      </c>
+      <c r="K2">
+        <v>-0.7226399948530924</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>-0.813710126051342</v>
+      </c>
+      <c r="C3">
+        <v>-1.386939699681625</v>
+      </c>
+      <c r="D3">
+        <v>-1.739413699997076</v>
+      </c>
+      <c r="E3">
+        <v>-1.45708559389359</v>
+      </c>
+      <c r="F3">
+        <v>2.582043957737425</v>
+      </c>
+      <c r="G3">
+        <v>-0.6261264237462381</v>
+      </c>
+      <c r="H3">
+        <v>-2.175155741696573</v>
+      </c>
+      <c r="I3">
+        <v>-0.3465124291529731</v>
+      </c>
+      <c r="J3">
+        <v>3.519114630570317</v>
+      </c>
+      <c r="K3">
+        <v>2.903612064171368</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>-0.996156291697591</v>
+      </c>
+      <c r="C4">
+        <v>-1.129360090670429</v>
+      </c>
+      <c r="D4">
+        <v>2.739878007890743</v>
+      </c>
+      <c r="E4">
+        <v>-0.5230392490526889</v>
+      </c>
+      <c r="F4">
+        <v>-2.086290497031732</v>
+      </c>
+      <c r="G4">
+        <v>-0.2603559746766422</v>
+      </c>
+      <c r="H4">
+        <v>3.605100843478045</v>
+      </c>
+      <c r="I4">
+        <v>2.989751628704966</v>
+      </c>
+      <c r="J4">
+        <v>-1.242744355071291</v>
+      </c>
+      <c r="K4">
+        <v>1.108804594880352</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>3.237131066158356</v>
+      </c>
+      <c r="C5">
+        <v>-0.3730917358658361</v>
+      </c>
+      <c r="D5">
+        <v>-2.039382901919488</v>
+      </c>
+      <c r="E5">
+        <v>-0.2234963357319091</v>
+      </c>
+      <c r="F5">
+        <v>3.650112759301947</v>
+      </c>
+      <c r="G5">
+        <v>3.040590124178446</v>
+      </c>
+      <c r="H5">
+        <v>-1.189758762814223</v>
+      </c>
+      <c r="I5">
+        <v>1.162213928907844</v>
+      </c>
+      <c r="J5">
+        <v>-1.223748730369209</v>
+      </c>
+      <c r="K5">
+        <v>1.074878680231034</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>-1.550662839896997</v>
+      </c>
+      <c r="C6">
+        <v>-0.05708368606287517</v>
+      </c>
+      <c r="D6">
+        <v>3.64056549865963</v>
+      </c>
+      <c r="E6">
+        <v>2.975674361921934</v>
+      </c>
+      <c r="F6">
+        <v>-1.264203300925982</v>
+      </c>
+      <c r="G6">
+        <v>1.088797229875178</v>
+      </c>
+      <c r="H6">
+        <v>-1.295624877004595</v>
+      </c>
+      <c r="I6">
+        <v>1.003680732191291</v>
+      </c>
+      <c r="J6">
+        <v>0.0147793674887351</v>
+      </c>
+      <c r="K6">
+        <v>-0.778296176428094</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-6.368857250183517</v>
+        <v>3.538228600405598</v>
       </c>
       <c r="C7">
-        <v>-1.436638705109976</v>
+        <v>2.911454431976621</v>
       </c>
       <c r="D7">
-        <v>-1.15069524630399</v>
+        <v>-1.300384283026612</v>
       </c>
       <c r="E7">
-        <v>-1.637140891534393</v>
+        <v>1.062010011927241</v>
       </c>
       <c r="F7">
-        <v>-2.051596674685428</v>
+        <v>-1.320343260949493</v>
       </c>
       <c r="G7">
-        <v>-1.810622409974628</v>
+        <v>0.9792110542581727</v>
       </c>
       <c r="H7">
-        <v>2.212164033381433</v>
+        <v>-0.009712103314494014</v>
       </c>
       <c r="I7">
-        <v>-1.000983204802937</v>
+        <v>-0.802806458507523</v>
       </c>
       <c r="J7">
-        <v>-2.551166220803925</v>
+        <v>0.1462931445730078</v>
       </c>
       <c r="K7">
-        <v>-0.7226399948530924</v>
+        <v>0.3403595965575588</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.813710126051342</v>
+        <v>-2.532559950381512</v>
       </c>
       <c r="C8">
-        <v>-1.386939699681625</v>
+        <v>0.6112090074870349</v>
       </c>
       <c r="D8">
-        <v>-1.739413699997076</v>
+        <v>-1.558998422754375</v>
       </c>
       <c r="E8">
-        <v>-1.45708559389359</v>
+        <v>0.7626713697680265</v>
       </c>
       <c r="F8">
-        <v>2.582043957737425</v>
+        <v>-0.2381993183822756</v>
       </c>
       <c r="G8">
-        <v>-0.6261264237462381</v>
+        <v>-1.039754737872091</v>
       </c>
       <c r="H8">
-        <v>-2.175155741696573</v>
+        <v>-0.09363700744329717</v>
       </c>
       <c r="I8">
-        <v>-0.3465124291529731</v>
+        <v>0.09984144883311818</v>
       </c>
       <c r="J8">
-        <v>3.519114630570317</v>
+        <v>-0.8921424826310529</v>
       </c>
       <c r="K8">
-        <v>2.903612064171368</v>
+        <v>0.6862538572362853</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.996156291697591</v>
+        <v>-2.064460936638755</v>
       </c>
       <c r="C9">
-        <v>-1.129360090670429</v>
+        <v>0.5693677083940861</v>
       </c>
       <c r="D9">
-        <v>2.739878007890743</v>
+        <v>-0.2849418848881079</v>
       </c>
       <c r="E9">
-        <v>-0.5230392490526889</v>
+        <v>-1.039791934600971</v>
       </c>
       <c r="F9">
-        <v>-2.086290497031732</v>
+        <v>-0.08289560797025619</v>
       </c>
       <c r="G9">
-        <v>-0.2603559746766422</v>
+        <v>0.11192428195478</v>
       </c>
       <c r="H9">
-        <v>3.605100843478045</v>
+        <v>-0.8803312557051458</v>
       </c>
       <c r="I9">
-        <v>2.989751628704966</v>
+        <v>0.6978126170366402</v>
       </c>
       <c r="J9">
-        <v>-1.242744355071291</v>
+        <v>1.557357503034233</v>
       </c>
       <c r="K9">
-        <v>1.108804594880352</v>
+        <v>-0.06222817510784251</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3.237131066158356</v>
+        <v>-0.6369227184815962</v>
       </c>
       <c r="C10">
-        <v>-0.3730917358658361</v>
+        <v>-1.15390441321369</v>
       </c>
       <c r="D10">
-        <v>-2.039382901919488</v>
+        <v>-0.09872167331699</v>
       </c>
       <c r="E10">
-        <v>-0.2234963357319091</v>
+        <v>0.1288807731620716</v>
       </c>
       <c r="F10">
-        <v>3.650112759301947</v>
+        <v>-0.8534920361738304</v>
       </c>
       <c r="G10">
-        <v>3.040590124178446</v>
+        <v>0.7274403431439987</v>
       </c>
       <c r="H10">
-        <v>-1.189758762814223</v>
+        <v>1.587730471003571</v>
       </c>
       <c r="I10">
-        <v>1.162213928907844</v>
+        <v>-0.03166597682635963</v>
       </c>
       <c r="J10">
-        <v>-1.223748730369209</v>
+        <v>-0.2987769267809953</v>
       </c>
       <c r="K10">
-        <v>1.074878680231034</v>
+        <v>1.347744990766749</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1.550662839896997</v>
+        <v>0.4360974862284879</v>
       </c>
       <c r="C11">
-        <v>-0.05708368606287517</v>
+        <v>0.3400446066853098</v>
       </c>
       <c r="D11">
-        <v>3.64056549865963</v>
+        <v>-0.752955267278526</v>
       </c>
       <c r="E11">
-        <v>2.975674361921934</v>
+        <v>0.7975279725075002</v>
       </c>
       <c r="F11">
-        <v>-1.264203300925982</v>
+        <v>1.650844251758706</v>
       </c>
       <c r="G11">
-        <v>1.088797229875178</v>
+        <v>0.03018131338831953</v>
       </c>
       <c r="H11">
-        <v>-1.295624877004595</v>
+        <v>-0.2370671482270481</v>
       </c>
       <c r="I11">
-        <v>1.003680732191291</v>
+        <v>1.409472189182007</v>
       </c>
       <c r="J11">
-        <v>0.0147793674887351</v>
+        <v>-0.6754028698289749</v>
       </c>
       <c r="K11">
-        <v>-0.778296176428094</v>
+        <v>-0.2823167565096429</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3.538228600405598</v>
+        <v>-0.9035474957898531</v>
       </c>
       <c r="C12">
-        <v>2.911454431976621</v>
+        <v>0.7268216816514477</v>
       </c>
       <c r="D12">
-        <v>-1.300384283026612</v>
+        <v>1.605044333733288</v>
       </c>
       <c r="E12">
-        <v>1.062010011927241</v>
+        <v>-0.009078165839285113</v>
       </c>
       <c r="F12">
-        <v>-1.320343260949493</v>
+        <v>-0.2748387288573969</v>
       </c>
       <c r="G12">
-        <v>0.9792110542581727</v>
+        <v>1.371988509816036</v>
       </c>
       <c r="H12">
-        <v>-0.009712103314494014</v>
+        <v>-0.7128435482949271</v>
       </c>
       <c r="I12">
-        <v>-0.802806458507523</v>
+        <v>-0.3197547258302346</v>
       </c>
       <c r="J12">
-        <v>0.1462931445730078</v>
+        <v>-0.07435146343805643</v>
       </c>
       <c r="K12">
-        <v>0.3403595965575588</v>
+        <v>-0.6898409579895783</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-2.532559950381512</v>
+        <v>1.220746042148609</v>
       </c>
       <c r="C13">
-        <v>0.6112090074870349</v>
+        <v>-0.1318255781251413</v>
       </c>
       <c r="D13">
-        <v>-1.558998422754375</v>
+        <v>-0.2989456735119943</v>
       </c>
       <c r="E13">
-        <v>0.7626713697680265</v>
+        <v>1.37665323848518</v>
       </c>
       <c r="F13">
-        <v>-0.2381993183822756</v>
+        <v>-0.7012101498807801</v>
       </c>
       <c r="G13">
-        <v>-1.039754737872091</v>
+        <v>-0.3067443842641496</v>
       </c>
       <c r="H13">
-        <v>-0.09363700744329717</v>
+        <v>-0.06115084917952895</v>
       </c>
       <c r="I13">
-        <v>0.09984144883311818</v>
+        <v>-0.6766404357070193</v>
       </c>
       <c r="J13">
-        <v>-0.8921424826310529</v>
+        <v>-1.753627230325714</v>
       </c>
       <c r="K13">
-        <v>0.6862538572362853</v>
+        <v>2.024032355456279</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-2.064460936638755</v>
+        <v>-0.1622317722560132</v>
       </c>
       <c r="C14">
-        <v>0.5693677083940861</v>
+        <v>1.421714455431746</v>
       </c>
       <c r="D14">
-        <v>-0.2849418848881079</v>
+        <v>-0.6993071541019057</v>
       </c>
       <c r="E14">
-        <v>-1.039791934600971</v>
+        <v>-0.3186426987261488</v>
       </c>
       <c r="F14">
-        <v>-0.08289560797025619</v>
+        <v>-0.07650301294495143</v>
       </c>
       <c r="G14">
-        <v>0.11192428195478</v>
+        <v>-0.6926495582095396</v>
       </c>
       <c r="H14">
-        <v>-0.8803312557051458</v>
+        <v>-1.769704178519168</v>
       </c>
       <c r="I14">
-        <v>0.6978126170366402</v>
+        <v>2.007969085269005</v>
       </c>
       <c r="J14">
-        <v>1.557357503034233</v>
+        <v>0.2857256358156962</v>
       </c>
       <c r="K14">
-        <v>-0.06222817510784251</v>
+        <v>1.867295624165436</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.6369227184815962</v>
+        <v>-1.403355091285255</v>
       </c>
       <c r="C15">
-        <v>-1.15390441321369</v>
+        <v>-0.5842996152036319</v>
       </c>
       <c r="D15">
-        <v>-0.09872167331699</v>
+        <v>-0.1901094624705741</v>
       </c>
       <c r="E15">
-        <v>0.1288807731620716</v>
+        <v>-0.7665325548316434</v>
       </c>
       <c r="F15">
-        <v>-0.8534920361738304</v>
+        <v>-1.835786199770668</v>
       </c>
       <c r="G15">
-        <v>0.7274403431439987</v>
+        <v>1.942741629767957</v>
       </c>
       <c r="H15">
-        <v>1.587730471003571</v>
+        <v>0.220354894677757</v>
       </c>
       <c r="I15">
-        <v>-0.03166597682635963</v>
+        <v>1.80180038745384</v>
       </c>
       <c r="J15">
-        <v>-0.2987769267809953</v>
+        <v>0.2491628686221334</v>
       </c>
       <c r="K15">
-        <v>1.347744990766749</v>
+        <v>-0.09825880859437386</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.4360974862284879</v>
+        <v>0.01286187561048191</v>
       </c>
       <c r="C16">
-        <v>0.3400446066853098</v>
+        <v>-0.6821087199200093</v>
       </c>
       <c r="D16">
-        <v>-0.752955267278526</v>
+        <v>-1.779844172513418</v>
       </c>
       <c r="E16">
-        <v>0.7975279725075002</v>
+        <v>1.993620729886112</v>
       </c>
       <c r="F16">
-        <v>1.650844251758706</v>
+        <v>0.2708235953410402</v>
       </c>
       <c r="G16">
-        <v>0.03018131338831953</v>
+        <v>1.852417748147625</v>
       </c>
       <c r="H16">
-        <v>-0.2370671482270481</v>
+        <v>0.2998746015896887</v>
       </c>
       <c r="I16">
-        <v>1.409472189182007</v>
+        <v>-0.04751419757671471</v>
       </c>
       <c r="J16">
-        <v>-0.6754028698289749</v>
+        <v>2.299259893492286</v>
       </c>
       <c r="K16">
-        <v>-0.2823167565096429</v>
+        <v>-0.08945883417979694</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.9035474957898531</v>
+        <v>-1.480372839300688</v>
       </c>
       <c r="C17">
-        <v>0.7268216816514477</v>
+        <v>2.075661924485908</v>
       </c>
       <c r="D17">
-        <v>1.605044333733288</v>
+        <v>0.2816094869947836</v>
       </c>
       <c r="E17">
-        <v>-0.009078165839285113</v>
+        <v>1.846043257483924</v>
       </c>
       <c r="F17">
-        <v>-0.2748387288573969</v>
+        <v>0.2906384365319534</v>
       </c>
       <c r="G17">
-        <v>1.371988509816036</v>
+        <v>-0.05687245002472985</v>
       </c>
       <c r="H17">
-        <v>-0.7128435482949271</v>
+        <v>2.290039724033851</v>
       </c>
       <c r="I17">
-        <v>-0.3197547258302346</v>
+        <v>-0.09860918399160867</v>
       </c>
       <c r="J17">
-        <v>-0.07435146343805643</v>
+        <v>1.176900888993838</v>
       </c>
       <c r="K17">
-        <v>-0.6898409579895783</v>
+        <v>4.043369835047661</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.220746042148609</v>
+        <v>2.785591590428883</v>
       </c>
       <c r="C18">
-        <v>-0.1318255781251413</v>
+        <v>0.5482993327467796</v>
       </c>
       <c r="D18">
-        <v>-0.2989456735119943</v>
+        <v>1.962605890278369</v>
       </c>
       <c r="E18">
-        <v>1.37665323848518</v>
+        <v>0.3685363896834106</v>
       </c>
       <c r="F18">
-        <v>-0.7012101498807801</v>
+        <v>0.01347368907221691</v>
       </c>
       <c r="G18">
-        <v>-0.3067443842641496</v>
+        <v>2.359536125580573</v>
       </c>
       <c r="H18">
-        <v>-0.06115084917952895</v>
+        <v>-0.02899411326910206</v>
       </c>
       <c r="I18">
-        <v>-0.6766404357070193</v>
+        <v>1.246626855707972</v>
       </c>
       <c r="J18">
-        <v>-1.753627230325714</v>
+        <v>4.113138334221452</v>
       </c>
       <c r="K18">
-        <v>2.024032355456279</v>
+        <v>21.34945489876353</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.1622317722560132</v>
+        <v>-0.8609762771832106</v>
       </c>
       <c r="C19">
-        <v>1.421714455431746</v>
+        <v>1.43555317579982</v>
       </c>
       <c r="D19">
-        <v>-0.6993071541019057</v>
+        <v>0.1255547812747969</v>
       </c>
       <c r="E19">
-        <v>-0.3186426987261488</v>
+        <v>-0.1775303992092375</v>
       </c>
       <c r="F19">
-        <v>-0.07650301294495143</v>
+        <v>2.167273917480192</v>
       </c>
       <c r="G19">
-        <v>-0.6926495582095396</v>
+        <v>-0.226308493994001</v>
       </c>
       <c r="H19">
-        <v>-1.769704178519168</v>
+        <v>1.04717975815014</v>
       </c>
       <c r="I19">
-        <v>2.007969085269005</v>
+        <v>3.913185592688521</v>
       </c>
       <c r="J19">
-        <v>0.2857256358156962</v>
+        <v>21.14946415744433</v>
       </c>
       <c r="K19">
-        <v>1.867295624165436</v>
+        <v>-17.32933988996592</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1.403355091285255</v>
+        <v>1.770527283809603</v>
       </c>
       <c r="C20">
-        <v>-0.5842996152036319</v>
+        <v>0.2217325668379069</v>
       </c>
       <c r="D20">
-        <v>-0.1901094624705741</v>
+        <v>-0.1401171526586062</v>
       </c>
       <c r="E20">
-        <v>-0.7665325548316434</v>
+        <v>2.199870656307414</v>
       </c>
       <c r="F20">
-        <v>-1.835786199770668</v>
+        <v>-0.1906474180448077</v>
       </c>
       <c r="G20">
-        <v>1.942741629767957</v>
+        <v>1.084615820347178</v>
       </c>
       <c r="H20">
-        <v>0.220354894677757</v>
+        <v>3.951132778100655</v>
       </c>
       <c r="I20">
-        <v>1.80180038745384</v>
+        <v>21.18747955861703</v>
       </c>
       <c r="J20">
-        <v>0.2491628686221334</v>
+        <v>-17.29133967641291</v>
       </c>
       <c r="K20">
-        <v>-0.09825880859437386</v>
+        <v>-3.693364593698097</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01286187561048191</v>
+        <v>-0.6376814788780407</v>
       </c>
       <c r="C21">
-        <v>-0.6821087199200093</v>
+        <v>-0.4253738905148546</v>
       </c>
       <c r="D21">
-        <v>-1.779844172513418</v>
+        <v>2.085101794459794</v>
       </c>
       <c r="E21">
-        <v>1.993620729886112</v>
+        <v>-0.2824411968491332</v>
       </c>
       <c r="F21">
-        <v>0.2708235953410402</v>
+        <v>0.9874396860603021</v>
       </c>
       <c r="G21">
-        <v>1.852417748147625</v>
+        <v>3.849489794559549</v>
       </c>
       <c r="H21">
-        <v>0.2998746015896887</v>
+        <v>21.08435573490787</v>
       </c>
       <c r="I21">
-        <v>-0.04751419757671471</v>
+        <v>-17.39471009871506</v>
       </c>
       <c r="J21">
-        <v>2.299259893492286</v>
+        <v>-3.79670895171358</v>
       </c>
       <c r="K21">
-        <v>-0.08945883417979694</v>
+        <v>-1.101157070391391</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1.480372839300688</v>
+        <v>-0.2069088294027952</v>
       </c>
       <c r="C22">
-        <v>2.075661924485908</v>
+        <v>2.039822134759732</v>
       </c>
       <c r="D22">
-        <v>0.2816094869947836</v>
+        <v>-0.4051677948512256</v>
       </c>
       <c r="E22">
-        <v>1.846043257483924</v>
+        <v>0.8574454150139584</v>
       </c>
       <c r="F22">
-        <v>0.2906384365319534</v>
+        <v>3.72446370657699</v>
       </c>
       <c r="G22">
-        <v>-0.05687245002472985</v>
+        <v>20.96234777393992</v>
       </c>
       <c r="H22">
-        <v>2.290039724033851</v>
+        <v>-17.51588811683549</v>
       </c>
       <c r="I22">
-        <v>-0.09860918399160867</v>
+        <v>-3.91783331477943</v>
       </c>
       <c r="J22">
-        <v>1.176900888993838</v>
+        <v>-1.222343835273113</v>
       </c>
       <c r="K22">
-        <v>4.043369835047661</v>
+        <v>0.08688474674079405</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>2.785591590428883</v>
+        <v>2.266865627799826</v>
       </c>
       <c r="C23">
-        <v>0.5482993327467796</v>
+        <v>-0.2075975860843876</v>
       </c>
       <c r="D23">
-        <v>1.962605890278369</v>
+        <v>1.03299589117307</v>
       </c>
       <c r="E23">
-        <v>0.3685363896834106</v>
+        <v>3.89122981038236</v>
       </c>
       <c r="F23">
-        <v>0.01347368907221691</v>
+        <v>21.12723850747384</v>
       </c>
       <c r="G23">
-        <v>2.359536125580573</v>
+        <v>-17.35082311257544</v>
       </c>
       <c r="H23">
-        <v>-0.02899411326910206</v>
+        <v>-3.752422783919251</v>
       </c>
       <c r="I23">
-        <v>1.246626855707972</v>
+        <v>-1.056772541819168</v>
       </c>
       <c r="J23">
-        <v>4.113138334221452</v>
+        <v>0.2524961695111837</v>
       </c>
       <c r="K23">
-        <v>21.34945489876353</v>
+        <v>1.773851201864402</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.8609762771832106</v>
+        <v>-1.832872462948859</v>
       </c>
       <c r="C24">
-        <v>1.43555317579982</v>
+        <v>0.4368484690775145</v>
       </c>
       <c r="D24">
-        <v>0.1255547812747969</v>
+        <v>3.763342468376856</v>
       </c>
       <c r="E24">
-        <v>-0.1775303992092375</v>
+        <v>21.05694673584551</v>
       </c>
       <c r="F24">
-        <v>2.167273917480192</v>
+        <v>-17.48570380905856</v>
       </c>
       <c r="G24">
-        <v>-0.226308493994001</v>
+        <v>-3.936882838459073</v>
       </c>
       <c r="H24">
-        <v>1.04717975815014</v>
+        <v>-1.256438011794183</v>
       </c>
       <c r="I24">
-        <v>3.913185592688521</v>
+        <v>0.05443171439135297</v>
       </c>
       <c r="J24">
-        <v>21.14946415744433</v>
+        <v>1.579913860433375</v>
       </c>
       <c r="K24">
-        <v>-11.61231583702049</v>
+        <v>-4.183776028535706</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1.770527283809603</v>
+        <v>1.49440884743611</v>
       </c>
       <c r="C25">
-        <v>0.2217325668379069</v>
+        <v>4.025562993579745</v>
       </c>
       <c r="D25">
-        <v>-0.1401171526586062</v>
+        <v>21.02760536293707</v>
       </c>
       <c r="E25">
-        <v>2.199870656307414</v>
+        <v>-17.51708864758171</v>
       </c>
       <c r="F25">
-        <v>-0.1906474180448077</v>
+        <v>-3.909589792251163</v>
       </c>
       <c r="G25">
-        <v>1.084615820347178</v>
+        <v>-1.195469396327415</v>
       </c>
       <c r="H25">
-        <v>3.951132778100655</v>
+        <v>0.12243491398315</v>
       </c>
       <c r="I25">
-        <v>21.18747955861703</v>
+        <v>1.644983355806197</v>
       </c>
       <c r="J25">
-        <v>-11.57431562346748</v>
+        <v>-4.121817089445885</v>
       </c>
       <c r="K25">
-        <v>-1.961995145278923</v>
+        <v>2.785034298942664</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.6376814788780407</v>
+        <v>3.157217873337744</v>
       </c>
       <c r="C26">
-        <v>-0.4253738905148546</v>
+        <v>20.7836170586022</v>
       </c>
       <c r="D26">
-        <v>2.085101794459794</v>
+        <v>-17.53211745373655</v>
       </c>
       <c r="E26">
-        <v>-0.2824411968491332</v>
+        <v>-3.916709741525974</v>
       </c>
       <c r="F26">
-        <v>0.9874396860603021</v>
+        <v>-1.242274072685598</v>
       </c>
       <c r="G26">
-        <v>3.849489794559549</v>
+        <v>0.05189478584393326</v>
       </c>
       <c r="H26">
-        <v>21.08435573490787</v>
+        <v>1.568809918339045</v>
       </c>
       <c r="I26">
-        <v>-11.67768604576962</v>
+        <v>-4.196565832493818</v>
       </c>
       <c r="J26">
-        <v>-2.065339503294407</v>
+        <v>2.712169547412548</v>
       </c>
       <c r="K26">
-        <v>-1.059026116782331</v>
+        <v>0.3023803218591948</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.2069088294027952</v>
+        <v>19.00579782151058</v>
       </c>
       <c r="C27">
-        <v>2.039822134759732</v>
+        <v>-17.99663262028099</v>
       </c>
       <c r="D27">
-        <v>-0.4051677948512256</v>
+        <v>-3.908379315592549</v>
       </c>
       <c r="E27">
-        <v>0.8574454150139584</v>
+        <v>-1.221007110659861</v>
       </c>
       <c r="F27">
-        <v>3.72446370657699</v>
+        <v>-0.01064528797129216</v>
       </c>
       <c r="G27">
-        <v>20.96234777393992</v>
+        <v>1.456646420463322</v>
       </c>
       <c r="H27">
-        <v>-11.79886406389006</v>
+        <v>-4.320493751483252</v>
       </c>
       <c r="I27">
-        <v>-2.186463866360257</v>
+        <v>2.591183930880842</v>
       </c>
       <c r="J27">
-        <v>-1.180212881664053</v>
+        <v>0.1853155011395345</v>
       </c>
       <c r="K27">
-        <v>-0.4606095307519094</v>
+        <v>-1.508211926497428</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>2.266865627799826</v>
+        <v>-34.34780918396219</v>
       </c>
       <c r="C28">
-        <v>-0.2075975860843876</v>
+        <v>-13.36273003430694</v>
       </c>
       <c r="D28">
-        <v>1.03299589117307</v>
+        <v>-5.536754708846632</v>
       </c>
       <c r="E28">
-        <v>3.89122981038236</v>
+        <v>-1.716918980772014</v>
       </c>
       <c r="F28">
-        <v>21.12723850747384</v>
+        <v>0.6799023148324587</v>
       </c>
       <c r="G28">
-        <v>-11.63379905963001</v>
+        <v>-4.948663583504912</v>
       </c>
       <c r="H28">
-        <v>-2.021053335500078</v>
+        <v>1.868208775921702</v>
       </c>
       <c r="I28">
-        <v>-1.014641588210108</v>
+        <v>-0.6489607651843037</v>
       </c>
       <c r="J28">
-        <v>-0.2949981079815197</v>
+        <v>-2.411201043357444</v>
       </c>
       <c r="K28">
-        <v>-0.6584969853317673</v>
+        <v>0.4977648493300618</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1.832872462948859</v>
+        <v>-10.60128530754289</v>
       </c>
       <c r="C29">
-        <v>0.4368484690775145</v>
+        <v>1.878714810553608</v>
       </c>
       <c r="D29">
-        <v>3.763342468376856</v>
+        <v>-1.620695335042501</v>
       </c>
       <c r="E29">
-        <v>21.05694673584551</v>
+        <v>2.054614722602433</v>
       </c>
       <c r="F29">
-        <v>-11.76867975611313</v>
+        <v>-4.718226119337877</v>
       </c>
       <c r="G29">
-        <v>-2.2055133900399</v>
+        <v>2.650973803881219</v>
       </c>
       <c r="H29">
-        <v>-1.214307058185123</v>
+        <v>0.02719124668461459</v>
       </c>
       <c r="I29">
-        <v>-0.4930625631013504</v>
+        <v>-1.569747749065027</v>
       </c>
       <c r="J29">
-        <v>-0.8524343267627937</v>
+        <v>1.324197528546512</v>
       </c>
       <c r="K29">
-        <v>0.2317651965407751</v>
+        <v>-0.03378470415573109</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1.49440884743611</v>
+        <v>-4.66844310004847</v>
       </c>
       <c r="C30">
-        <v>4.025562993579745</v>
+        <v>-0.2409459478773396</v>
       </c>
       <c r="D30">
-        <v>21.02760536293707</v>
+        <v>2.21256075646991</v>
       </c>
       <c r="E30">
-        <v>-11.80006459463628</v>
+        <v>-4.192204443666649</v>
       </c>
       <c r="F30">
-        <v>-2.17822034383199</v>
+        <v>2.623990303831042</v>
       </c>
       <c r="G30">
-        <v>-1.153338442718355</v>
+        <v>0.3338468424969349</v>
       </c>
       <c r="H30">
-        <v>-0.4250593635095534</v>
+        <v>-1.358657756473432</v>
       </c>
       <c r="I30">
-        <v>-0.7873648313899717</v>
+        <v>1.559632543517334</v>
       </c>
       <c r="J30">
-        <v>0.293724135630597</v>
+        <v>0.182537440488805</v>
       </c>
       <c r="K30">
-        <v>2.683196721590038</v>
+        <v>1.690688120167491</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3.157217873337744</v>
+        <v>-0.1925181731883135</v>
       </c>
       <c r="C31">
-        <v>20.7836170586022</v>
+        <v>1.866325412176645</v>
       </c>
       <c r="D31">
-        <v>-11.81509340079112</v>
+        <v>-3.842473384759537</v>
       </c>
       <c r="E31">
-        <v>-2.185340293106801</v>
+        <v>2.99928038533069</v>
       </c>
       <c r="F31">
-        <v>-1.200143119076538</v>
+        <v>0.5951420735988974</v>
       </c>
       <c r="G31">
-        <v>-0.4955994916487702</v>
+        <v>-1.094428193320957</v>
       </c>
       <c r="H31">
-        <v>-0.863538268857124</v>
+        <v>1.843213241122496</v>
       </c>
       <c r="I31">
-        <v>0.2189753925826632</v>
+        <v>0.464031041177192</v>
       </c>
       <c r="J31">
-        <v>2.610331970059922</v>
+        <v>1.968974767034759</v>
       </c>
       <c r="K31">
-        <v>-0.5289993024319076</v>
+        <v>1.642241288071927</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>19.00579782151058</v>
+        <v>1.957034167783577</v>
       </c>
       <c r="C32">
-        <v>-12.27960856733556</v>
+        <v>-3.775602432951854</v>
       </c>
       <c r="D32">
-        <v>-2.177009867173375</v>
+        <v>3.05217594245683</v>
       </c>
       <c r="E32">
-        <v>-1.178876157050801</v>
+        <v>0.6572506857670726</v>
       </c>
       <c r="F32">
-        <v>-0.5581395654639956</v>
+        <v>-1.028930028881036</v>
       </c>
       <c r="G32">
-        <v>-0.9757017667328467</v>
+        <v>1.905508960610105</v>
       </c>
       <c r="H32">
-        <v>0.09504747359322968</v>
+        <v>0.526392345431649</v>
       </c>
       <c r="I32">
-        <v>2.489346353528216</v>
+        <v>2.031965983100669</v>
       </c>
       <c r="J32">
-        <v>-0.646064123151568</v>
+        <v>1.705057404015388</v>
       </c>
       <c r="K32">
-        <v>0.3448716098904578</v>
+        <v>2.543065317548525</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-13.78859300931171</v>
+        <v>-3.319041089113893</v>
       </c>
       <c r="C33">
-        <v>-1.8576713942178</v>
+        <v>3.211543982978833</v>
       </c>
       <c r="D33">
-        <v>-1.594394930640522</v>
+        <v>0.4963820900862055</v>
       </c>
       <c r="E33">
-        <v>-0.7262376003151533</v>
+        <v>-1.057638183692633</v>
       </c>
       <c r="F33">
-        <v>-1.131345204306679</v>
+        <v>1.895192615384509</v>
       </c>
       <c r="G33">
-        <v>-0.0400820049263379</v>
+        <v>0.4895326961798445</v>
       </c>
       <c r="H33">
-        <v>2.347846054431515</v>
+        <v>1.998975317960764</v>
       </c>
       <c r="I33">
-        <v>-0.7914519404943994</v>
+        <v>1.675432400629086</v>
       </c>
       <c r="J33">
-        <v>0.1976168834599835</v>
+        <v>2.511928564606362</v>
       </c>
       <c r="K33">
-        <v>0.752585062798619</v>
+        <v>-0.167878410453918</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-4.793904675302259</v>
+        <v>2.25888412943897</v>
       </c>
       <c r="C34">
-        <v>-1.152486974626846</v>
+        <v>0.3582309843998018</v>
       </c>
       <c r="D34">
-        <v>-0.1652404823494729</v>
+        <v>-0.7835713169566929</v>
       </c>
       <c r="E34">
-        <v>-0.9068229850623465</v>
+        <v>1.935426344530889</v>
       </c>
       <c r="F34">
-        <v>0.1914732455111706</v>
+        <v>0.5324620848709736</v>
       </c>
       <c r="G34">
-        <v>2.628691424209373</v>
+        <v>2.076043879811205</v>
       </c>
       <c r="H34">
-        <v>-0.5195641834148149</v>
+        <v>1.742696305424635</v>
       </c>
       <c r="I34">
-        <v>0.4646859024179207</v>
+        <v>2.576788434316198</v>
       </c>
       <c r="J34">
-        <v>1.021380302375019</v>
+        <v>-0.1008824831508731</v>
       </c>
       <c r="K34">
-        <v>1.233798142738927</v>
+        <v>1.134600740129908</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1.477469035715396</v>
+        <v>0.9944388281790735</v>
       </c>
       <c r="C35">
-        <v>-0.1962487163116516</v>
+        <v>-0.7367179991959909</v>
       </c>
       <c r="D35">
-        <v>-0.5043291162304769</v>
+        <v>1.689029222266171</v>
       </c>
       <c r="E35">
-        <v>0.5077519644975793</v>
+        <v>0.4578386464905256</v>
       </c>
       <c r="F35">
-        <v>2.904916473494419</v>
+        <v>2.000627817329037</v>
       </c>
       <c r="G35">
-        <v>-0.2286967076213928</v>
+        <v>1.640654201609292</v>
       </c>
       <c r="H35">
-        <v>0.758642744614449</v>
+        <v>2.482106051248113</v>
       </c>
       <c r="I35">
-        <v>1.313253142771279</v>
+        <v>-0.1934093249009629</v>
       </c>
       <c r="J35">
-        <v>1.525522931210678</v>
+        <v>1.04033928895951</v>
+      </c>
+      <c r="K35">
+        <v>2.764463663985141</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.2872652736996719</v>
+        <v>-0.7613146397174311</v>
       </c>
       <c r="C36">
-        <v>-0.4606322258700465</v>
+        <v>1.738748518289537</v>
       </c>
       <c r="D36">
-        <v>0.6169019579845554</v>
+        <v>0.3289336411895696</v>
       </c>
       <c r="E36">
-        <v>2.979272128368097</v>
+        <v>1.917178009547636</v>
       </c>
       <c r="F36">
-        <v>-0.1527228604301725</v>
+        <v>1.571442225086492</v>
       </c>
       <c r="G36">
-        <v>0.8387566096014319</v>
+        <v>2.400889081562568</v>
       </c>
       <c r="H36">
-        <v>1.391908625679119</v>
+        <v>-0.2730707983855708</v>
       </c>
       <c r="I36">
-        <v>1.60402770443012</v>
+        <v>0.9621530155802016</v>
+      </c>
+      <c r="J36">
+        <v>2.68554092831471</v>
+      </c>
+      <c r="K36">
+        <v>3.052286043054687</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.5587178740100943</v>
+        <v>1.450140857813076</v>
       </c>
       <c r="C37">
-        <v>0.5211068668865928</v>
+        <v>0.2562259180950384</v>
       </c>
       <c r="D37">
-        <v>3.00248580151159</v>
+        <v>1.97433473189567</v>
       </c>
       <c r="E37">
-        <v>-0.1606469842247008</v>
+        <v>1.547668835674672</v>
       </c>
       <c r="F37">
-        <v>0.8198660782288805</v>
+        <v>2.378006560358896</v>
       </c>
       <c r="G37">
-        <v>1.38083111939653</v>
+        <v>-0.281103352422687</v>
       </c>
       <c r="H37">
-        <v>1.592683191626063</v>
+        <v>0.9493339525436422</v>
+      </c>
+      <c r="I37">
+        <v>2.671442079878515</v>
+      </c>
+      <c r="J37">
+        <v>3.039476375130951</v>
+      </c>
+      <c r="K37">
+        <v>-2.436065326563203</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.9437533977511201</v>
+        <v>0.6406334362307073</v>
       </c>
       <c r="C38">
-        <v>2.870816432755334</v>
+        <v>2.072136993074429</v>
       </c>
       <c r="D38">
-        <v>-0.300019111907136</v>
+        <v>1.365128770604209</v>
       </c>
       <c r="E38">
-        <v>0.7717742625953756</v>
+        <v>2.339092923011738</v>
       </c>
       <c r="F38">
-        <v>1.310158772084785</v>
+        <v>-0.3079149205996747</v>
       </c>
       <c r="G38">
-        <v>1.51320316878388</v>
+        <v>0.8899316204641817</v>
+      </c>
+      <c r="H38">
+        <v>2.619680973924259</v>
+      </c>
+      <c r="I38">
+        <v>2.99190035428146</v>
+      </c>
+      <c r="J38">
+        <v>-2.486476105632129</v>
+      </c>
+      <c r="K38">
+        <v>0.8740166842005405</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>3.142476222921052</v>
+        <v>2.279041869813757</v>
       </c>
       <c r="C39">
-        <v>0.198191346427316</v>
+        <v>1.364660634097036</v>
       </c>
       <c r="D39">
-        <v>0.6414616749352668</v>
+        <v>2.233850469905869</v>
       </c>
       <c r="E39">
-        <v>1.316865186845557</v>
+        <v>-0.3374747896449133</v>
       </c>
       <c r="F39">
-        <v>1.580982734570224</v>
+        <v>0.8572197922478608</v>
+      </c>
+      <c r="G39">
+        <v>2.572668757538748</v>
+      </c>
+      <c r="H39">
+        <v>2.950126951381641</v>
+      </c>
+      <c r="I39">
+        <v>-2.527041352139664</v>
+      </c>
+      <c r="J39">
+        <v>0.8320027763378763</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07137457840894901</v>
+        <v>2.035159727951369</v>
       </c>
       <c r="C40">
-        <v>0.4984570124090218</v>
+        <v>2.420094282127993</v>
       </c>
       <c r="D40">
-        <v>1.207454707641895</v>
+        <v>-0.5777405448231215</v>
       </c>
       <c r="E40">
-        <v>1.467797826681077</v>
+        <v>0.846716050809707</v>
+      </c>
+      <c r="F40">
+        <v>2.573428919085527</v>
+      </c>
+      <c r="G40">
+        <v>2.902190984887824</v>
+      </c>
+      <c r="H40">
+        <v>-2.561820069973615</v>
+      </c>
+      <c r="I40">
+        <v>0.8026396938474522</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.9121145765067795</v>
+        <v>2.925451661310402</v>
       </c>
       <c r="C41">
-        <v>1.212707363690452</v>
+        <v>-0.4190797873159667</v>
       </c>
       <c r="D41">
-        <v>1.34053488006884</v>
+        <v>0.6148343974608563</v>
+      </c>
+      <c r="E41">
+        <v>2.530497674202357</v>
+      </c>
+      <c r="F41">
+        <v>2.877258180398436</v>
+      </c>
+      <c r="G41">
+        <v>-2.629361321024937</v>
+      </c>
+      <c r="H41">
+        <v>0.7447744684086398</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.30696646038176</v>
+        <v>0.3866947907724951</v>
       </c>
       <c r="C42">
-        <v>1.585430374943125</v>
+        <v>0.8666183061337129</v>
+      </c>
+      <c r="D42">
+        <v>2.244119497181896</v>
+      </c>
+      <c r="E42">
+        <v>2.856605817286514</v>
+      </c>
+      <c r="F42">
+        <v>-2.628012363183588</v>
+      </c>
+      <c r="G42">
+        <v>0.6893704729749799</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>2.095074599063171</v>
+        <v>0.859102372451746</v>
+      </c>
+      <c r="C43">
+        <v>2.322448262598703</v>
+      </c>
+      <c r="D43">
+        <v>2.841688734323599</v>
+      </c>
+      <c r="E43">
+        <v>-2.630009269297866</v>
+      </c>
+      <c r="F43">
+        <v>0.6999637172787909</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>2.518240533879863</v>
+      </c>
+      <c r="C44">
+        <v>2.915708371652224</v>
+      </c>
+      <c r="D44">
+        <v>-2.72237770473967</v>
+      </c>
+      <c r="E44">
+        <v>0.6824695392157508</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>3.565613746524331</v>
+      </c>
+      <c r="C45">
+        <v>-2.481270880340997</v>
+      </c>
+      <c r="D45">
+        <v>0.4239743798924789</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-1.451990298217711</v>
+      </c>
+      <c r="C46">
+        <v>0.7853095085029023</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.5355100695541125</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>2.212164033381433</v>
       </c>
-      <c r="I2">
-        <v>-1.000983204802937</v>
-      </c>
-      <c r="J2">
-        <v>-2.551166220803925</v>
-      </c>
-      <c r="K2">
-        <v>-0.7226399948530924</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>2.582043957737425</v>
       </c>
-      <c r="G3">
-        <v>-0.6261264237462381</v>
-      </c>
-      <c r="H3">
-        <v>-2.175155741696573</v>
-      </c>
-      <c r="I3">
-        <v>-0.3465124291529731</v>
-      </c>
-      <c r="J3">
-        <v>3.519114630570317</v>
-      </c>
-      <c r="K3">
-        <v>2.903612064171368</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>3.605100843478045</v>
       </c>
-      <c r="I4">
-        <v>2.989751628704966</v>
-      </c>
-      <c r="J4">
-        <v>-1.242744355071291</v>
-      </c>
-      <c r="K4">
-        <v>1.108804594880352</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>3.650112759301947</v>
       </c>
-      <c r="G5">
-        <v>3.040590124178446</v>
-      </c>
-      <c r="H5">
-        <v>-1.189758762814223</v>
-      </c>
-      <c r="I5">
-        <v>1.162213928907844</v>
-      </c>
-      <c r="J5">
-        <v>-1.223748730369209</v>
-      </c>
-      <c r="K5">
-        <v>1.074878680231034</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>-1.295624877004595</v>
       </c>
-      <c r="I6">
-        <v>1.003680732191291</v>
-      </c>
-      <c r="J6">
-        <v>0.0147793674887351</v>
-      </c>
-      <c r="K6">
-        <v>-0.778296176428094</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>-1.320343260949493</v>
       </c>
-      <c r="G7">
-        <v>0.9792110542581727</v>
-      </c>
-      <c r="H7">
-        <v>-0.009712103314494014</v>
-      </c>
-      <c r="I7">
-        <v>-0.802806458507523</v>
-      </c>
-      <c r="J7">
-        <v>0.1462931445730078</v>
-      </c>
-      <c r="K7">
-        <v>0.3403595965575588</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>-0.09363700744329717</v>
       </c>
-      <c r="I8">
-        <v>0.09984144883311818</v>
-      </c>
-      <c r="J8">
-        <v>-0.8921424826310529</v>
-      </c>
-      <c r="K8">
-        <v>0.6862538572362853</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>-0.08289560797025619</v>
       </c>
-      <c r="G9">
-        <v>0.11192428195478</v>
-      </c>
-      <c r="H9">
-        <v>-0.8803312557051458</v>
-      </c>
-      <c r="I9">
-        <v>0.6978126170366402</v>
-      </c>
-      <c r="J9">
-        <v>1.557357503034233</v>
-      </c>
-      <c r="K9">
-        <v>-0.06222817510784251</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>1.587730471003571</v>
       </c>
-      <c r="I10">
-        <v>-0.03166597682635963</v>
-      </c>
-      <c r="J10">
-        <v>-0.2987769267809953</v>
-      </c>
-      <c r="K10">
-        <v>1.347744990766749</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>1.650844251758706</v>
       </c>
-      <c r="G11">
-        <v>0.03018131338831953</v>
-      </c>
-      <c r="H11">
-        <v>-0.2370671482270481</v>
-      </c>
-      <c r="I11">
-        <v>1.409472189182007</v>
-      </c>
-      <c r="J11">
-        <v>-0.6754028698289749</v>
-      </c>
-      <c r="K11">
-        <v>-0.2823167565096429</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>-0.7128435482949271</v>
       </c>
-      <c r="I12">
-        <v>-0.3197547258302346</v>
-      </c>
-      <c r="J12">
-        <v>-0.07435146343805643</v>
-      </c>
-      <c r="K12">
-        <v>-0.6898409579895783</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>-1.753627230325714</v>
       </c>
-      <c r="K13">
-        <v>2.024032355456279</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>-1.769704178519168</v>
       </c>
-      <c r="I14">
-        <v>2.007969085269005</v>
-      </c>
-      <c r="J14">
-        <v>0.2857256358156962</v>
-      </c>
-      <c r="K14">
-        <v>1.867295624165436</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>0.2491628686221334</v>
       </c>
-      <c r="K15">
-        <v>-0.09825880859437386</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>0.2998746015896887</v>
       </c>
-      <c r="I16">
-        <v>-0.04751419757671471</v>
-      </c>
-      <c r="J16">
-        <v>2.299259893492286</v>
-      </c>
-      <c r="K16">
-        <v>-0.08945883417979694</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>1.176900888993838</v>
       </c>
-      <c r="K17">
-        <v>4.043369835047661</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>1.246626855707972</v>
       </c>
-      <c r="J18">
-        <v>4.113138334221452</v>
-      </c>
-      <c r="K18">
-        <v>21.34945489876353</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>1.04717975815014</v>
       </c>
-      <c r="I19">
-        <v>3.913185592688521</v>
-      </c>
-      <c r="J19">
-        <v>21.14946415744433</v>
-      </c>
-      <c r="K19">
-        <v>-17.32933988996592</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>-3.79670895171358</v>
       </c>
-      <c r="K21">
-        <v>-1.101157070391391</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>-3.91783331477943</v>
       </c>
-      <c r="J22">
-        <v>-1.222343835273113</v>
-      </c>
-      <c r="K22">
-        <v>0.08688474674079405</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>-3.752422783919251</v>
       </c>
-      <c r="I23">
-        <v>-1.056772541819168</v>
-      </c>
-      <c r="J23">
-        <v>0.2524961695111837</v>
-      </c>
-      <c r="K23">
-        <v>1.773851201864402</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>-4.121817089445885</v>
       </c>
-      <c r="K25">
-        <v>2.785034298942664</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>-4.196565832493818</v>
       </c>
-      <c r="J26">
-        <v>2.712169547412548</v>
-      </c>
-      <c r="K26">
-        <v>0.3023803218591948</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>-4.320493751483252</v>
       </c>
-      <c r="I27">
-        <v>2.591183930880842</v>
-      </c>
-      <c r="J27">
-        <v>0.1853155011395345</v>
-      </c>
-      <c r="K27">
-        <v>-1.508211926497428</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>1.324197528546512</v>
       </c>
-      <c r="K29">
-        <v>-0.03378470415573109</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>1.559632543517334</v>
       </c>
-      <c r="J30">
-        <v>0.182537440488805</v>
-      </c>
-      <c r="K30">
-        <v>1.690688120167491</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>1.843213241122496</v>
       </c>
-      <c r="I31">
-        <v>0.464031041177192</v>
-      </c>
-      <c r="J31">
-        <v>1.968974767034759</v>
-      </c>
-      <c r="K31">
-        <v>1.642241288071927</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>2.511928564606362</v>
       </c>
-      <c r="K33">
-        <v>-0.167878410453918</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>2.576788434316198</v>
       </c>
-      <c r="J34">
-        <v>-0.1008824831508731</v>
-      </c>
-      <c r="K34">
-        <v>1.134600740129908</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>2.482106051248113</v>
       </c>
-      <c r="I35">
-        <v>-0.1934093249009629</v>
-      </c>
-      <c r="J35">
-        <v>1.04033928895951</v>
-      </c>
-      <c r="K35">
-        <v>2.764463663985141</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>3.039476375130951</v>
       </c>
-      <c r="K37">
-        <v>-2.436065326563203</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>2.99190035428146</v>
       </c>
-      <c r="J38">
-        <v>-2.486476105632129</v>
-      </c>
-      <c r="K38">
-        <v>0.8740166842005405</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>2.950126951381641</v>
-      </c>
-      <c r="I39">
-        <v>-2.527041352139664</v>
-      </c>
-      <c r="J39">
-        <v>0.8320027763378763</v>
       </c>
     </row>
     <row r="40" spans="1:11">
